--- a/DataScraper/data/data.xlsx
+++ b/DataScraper/data/data.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>About the Creative City:Situated in a picturesque valley at the foothills of Kopetdag, the Creative City of Ashgabat is the meeting point of two ancient civilizations, Anau and Nisa. Its unique location has profoundly influenced the city’s design, offering a harmonious blend of modern technologies and architectural traditions. Ashgabat is a city centred around design and is renowned for its innovative projects in the field of design, where both the public and private sectors, as well as professional designers, play an active role. Today, the design industry in Ashgabat encompasses approximately 190 enterprises, employing over 8,000 skilled individuals. In 2022, Ashgabat showcased its commitment to urban design by hosting the Ashgabat Design Forum and the “Design Without Borders” exhibition, gathering leading local, national, and international designers. Additionally, since 2017 the “Master-follower” project implemented by the Academy of Arts, has strengthened ties between graduates and students by hosting various competitions where design combines traditional and contemporary trends. This project forms a creative union of professionals and young, aspiring designers, as well as connecting the municipality with the community through the field of design.  Added Value: As a Creative City of Design, Ashgabat is dedicated:To provide training opportunities for aspiring designers, opening up new job prospects in the field of design; To foster creative projects and programmes aimed at enhancing the social well-being of marginalized groups;To strengthen interaction and collaboration with other creative fields covered by the Network, promoting the exchange of ideas and practices; andTo promote regional and international collaboration in the development and implementation of creative projects, recognizing design as an important element of sustainable urban development.</t>
+          <t>Situated in a picturesque valley at the foothills of Kopetdag, the Creative City of Ashgabat is the meeting point of two ancient civilizations, Anau and Nisa. Its unique location has profoundly influenced the city’s design, offering a harmonious blend of modern technologies and architectural traditions. Ashgabat is a city centred around design and is renowned for its innovative projects in the field of design, where both the public and private sectors, as well as professional designers, play an active role. Today, the design industry in Ashgabat encompasses approximately 190 enterprises, employing over 8,000 skilled individuals. In 2022, Ashgabat showcased its commitment to urban design by hosting the Ashgabat Design Forum and the “Design Without Borders” exhibition, gathering leading local, national, and international designers. Additionally, since 2017 the “Master-follower” project implemented by the Academy of Arts, has strengthened ties between graduates and students by hosting various competitions where design combines traditional and contemporary trends. This project forms a creative union of professionals and young, aspiring designers, as well as connecting the municipality with the community through the field of design.  Added Value: As a Creative City of Design, Ashgabat is dedicated:To provide training opportunities for aspiring designers, opening up new job prospects in the field of design; To foster creative projects and programmes aimed at enhancing the social well-being of marginalized groups;To strengthen interaction and collaboration with other creative fields covered by the Network, promoting the exchange of ideas and practices; andTo promote regional and international collaboration in the development and implementation of creative projects, recognizing design as an important element of sustainable urban development.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>About the Creative City: The city of Gangneung is developing an inclusive and creative culinary culture by safeguarding traditional local cuisine and keeping it up to date. The city is home to more than 7,500 establishments linked to the gastronomy sector. Gangneung is encouraging the development of a culture of excellence in gastronomy through a variety of events and competitions aimed at nurturing a creative melting pot of local culinary talent. Examples include the Gangneung Food Festival and the Food Talk Show.Combining tradition and innovation, Gangneung is promoting a mixed approach to gastronomy, by actively supporting young entrepreneurs who are initiating a fresh interpretation to traditional recipes and flavours by using modern ingredients and methods. Gangneung's gastronomic activities culminate in the Gangneung National Food Competition, where local chefs showcase the full extent of their culinary talent and creativity.This twofold focus on innovation and respect for local tradition is embodied in the city's efforts to support both the traditional tea sector and the newly established coffee sector. Other major events and institutions include tea ceremonies, the Gangneung Coffee Association (including 850 companies), the Coffee Festival Advisory Committee (representing coffee museums, coffee shops and university research) and the Gangneung Coffee Forum. The Creative City sees its gastronomy as a driving force to strengthen social cohesion at the local level, supporting, for example, a number of migrant inclusion programmes organized around meals and their preparation. Added value:As a Creative City of Gastronomy, Gangneung is dedicated to: Promoting sustainable urban development through the creative and cultural industries, in particular by breathing new life into traditional local gastronomy and supporting sustainable agriculture and short food supply chains; Developing and reviving culinary tourism programmes in cooperation with other Creative Cities; Encouraging synergies between the various creative fields, locally and among the Network; andEnsuring that the Sustainable Development Goals (SDGs) are applied.</t>
+          <t xml:space="preserve"> The city of Gangneung is developing an inclusive and creative culinary culture by safeguarding traditional local cuisine and keeping it up to date. The city is home to more than 7,500 establishments linked to the gastronomy sector. Gangneung is encouraging the development of a culture of excellence in gastronomy through a variety of events and competitions aimed at nurturing a creative melting pot of local culinary talent. Examples include the Gangneung Food Festival and the Food Talk Show.Combining tradition and innovation, Gangneung is promoting a mixed approach to gastronomy, by actively supporting young entrepreneurs who are initiating a fresh interpretation to traditional recipes and flavours by using modern ingredients and methods. Gangneung's gastronomic activities culminate in the Gangneung National Food Competition, where local chefs showcase the full extent of their culinary talent and creativity.This twofold focus on innovation and respect for local tradition is embodied in the city's efforts to support both the traditional tea sector and the newly established coffee sector. Other major events and institutions include tea ceremonies, the Gangneung Coffee Association (including 850 companies), the Coffee Festival Advisory Committee (representing coffee museums, coffee shops and university research) and the Gangneung Coffee Forum. The Creative City sees its gastronomy as a driving force to strengthen social cohesion at the local level, supporting, for example, a number of migrant inclusion programmes organized around meals and their preparation. Added value:As a Creative City of Gastronomy, Gangneung is dedicated to: Promoting sustainable urban development through the creative and cultural industries, in particular by breathing new life into traditional local gastronomy and supporting sustainable agriculture and short food supply chains; Developing and reviving culinary tourism programmes in cooperation with other Creative Cities; Encouraging synergies between the various creative fields, locally and among the Network; andEnsuring that the Sustainable Development Goals (SDGs) are applied.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>About the Creative City:Casablanca is a major centre for media arts and the cultural and creative industries in general, attracting 65% of the country's companies in this sector. The Festival International d'Art Vidéo (FIAV), one of the oldest in the country, has four Arttech incubators, which foster meetings and exchanges between various representatives of the sector and support a dozen schools and training centres dedicated to media arts. Casablanca thus offers an ideal setting for the development of digital creativity. Casablanca is also encouraging the development of the local video games industry, paving the way for a dynamic ecosystem of companies and events. This is evidenced by the Maghreb Game Conference 2016, Africa Gaming Fest 2018, Global Game Jam and Gaming Awards 2021 competition, which brought together thousands of enthusiasts and industry professionals. The Creative City also supports the use of media arts in other sectors, notably in the preservation and transmission of local heritage and in the development of Casablanca's Grand Museum. This will include a virtual wing, designed by representatives of the local digital industry, featuring elements of Morocco's and other partner African countries’ heritage. Added value:As a Creative City of Media Arts, Casablanca is dedicated to: Harnessing media arts to raise awareness of the key issues shaping citizen-led development of sustainable cities; Continuing with and developing international cultural cooperation, particularly in the media arts sector; andSupporting citizen-led cultural initiatives with a view to strengthening social cohesion and the sense of community.</t>
+          <t>Casablanca is a major centre for media arts and the cultural and creative industries in general, attracting 65% of the country's companies in this sector. The Festival International d'Art Vidéo (FIAV), one of the oldest in the country, has four Arttech incubators, which foster meetings and exchanges between various representatives of the sector and support a dozen schools and training centres dedicated to media arts. Casablanca thus offers an ideal setting for the development of digital creativity. Casablanca is also encouraging the development of the local video games industry, paving the way for a dynamic ecosystem of companies and events. This is evidenced by the Maghreb Game Conference 2016, Africa Gaming Fest 2018, Global Game Jam and Gaming Awards 2021 competition, which brought together thousands of enthusiasts and industry professionals. The Creative City also supports the use of media arts in other sectors, notably in the preservation and transmission of local heritage and in the development of Casablanca's Grand Museum. This will include a virtual wing, designed by representatives of the local digital industry, featuring elements of Morocco's and other partner African countries’ heritage. Added value:As a Creative City of Media Arts, Casablanca is dedicated to: Harnessing media arts to raise awareness of the key issues shaping citizen-led development of sustainable cities; Continuing with and developing international cultural cooperation, particularly in the media arts sector; andSupporting citizen-led cultural initiatives with a view to strengthening social cohesion and the sense of community.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>About the Creative City: Valencia emphasizes the essential role of design in articulating new processes of co-creation, social interaction, participation, and governance for more efficient, resilient, cooperative, attractive, and sustainable cities. The city has historical links to design, dating back to the 15th century with the first printing press and a flourishing silk industry. Valencia’s commitment to design education is evident, with a strong design legacy and a vibrant cultural and creative sector. The city is recognized as a prominent hub in the global design landscape, fostering connections with leading design centres worldwide.In the 1980s, the avant-garde design group La Nave revolutionized the perception of design, and innovative design-oriented policies laid the foundation for Valencia’s designation as the World Design Capital in 2002. Today, Valencia is the only city in the country with a Local Design Council, demonstrating its dedication to the field.Valencia’s main outcomes for its designation include the integration of design into policy-making processes, the strengthening of the design ecosystem, exploration of the impact of design education on urban dynamics, and active participation in UNESCO Creative Cities networks to leverage expertise and experiences.  Added Value: As a Creative City of Design, Valencia is dedicated: To establish vibrant centres of creativity and innovation to foster an environment conductive to generating new ideas and innovative approaches;To launch a hub for international cooperation, particularly in the context of Mediterranean design, recognising the influence of design on sociability, well-being, for fostering social interaction and tolerance; and To produce an action plan focusing on design education and training, with the aim of leveraging design as a powerful tool across various domains.</t>
+          <t xml:space="preserve"> Valencia emphasizes the essential role of design in articulating new processes of co-creation, social interaction, participation, and governance for more efficient, resilient, cooperative, attractive, and sustainable cities. The city has historical links to design, dating back to the 15th century with the first printing press and a flourishing silk industry. Valencia’s commitment to design education is evident, with a strong design legacy and a vibrant cultural and creative sector. The city is recognized as a prominent hub in the global design landscape, fostering connections with leading design centres worldwide.In the 1980s, the avant-garde design group La Nave revolutionized the perception of design, and innovative design-oriented policies laid the foundation for Valencia’s designation as the World Design Capital in 2002. Today, Valencia is the only city in the country with a Local Design Council, demonstrating its dedication to the field.Valencia’s main outcomes for its designation include the integration of design into policy-making processes, the strengthening of the design ecosystem, exploration of the impact of design education on urban dynamics, and active participation in UNESCO Creative Cities networks to leverage expertise and experiences.  Added Value: As a Creative City of Design, Valencia is dedicated: To establish vibrant centres of creativity and innovation to foster an environment conductive to generating new ideas and innovative approaches;To launch a hub for international cooperation, particularly in the context of Mediterranean design, recognising the influence of design on sociability, well-being, for fostering social interaction and tolerance; and To produce an action plan focusing on design education and training, with the aim of leveraging design as a powerful tool across various domains.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>About the Creative City: Veliky Novgorod Creative City has made significant contributions to the development of its local music culture over the years. This city’s cultural heritage echoes from the past, when ancient Novgorod was known for its epics and performances. This city is also the birthplace of the country’s traditional bell ringing, which eventually became a significant part of its music in the 18th and 19th centuries and was also essential in the development of Znamenny singing, a type of polyphonic liturgical singing that is now popular throughout the country and around the world. Veliky Novgorod is home to a number of cultural institutions, including music halls, theatres, educational organizations, and museums, and the city’s cultural sector employs over 2,000 people. Additionally, numerous professional ensembles represent musical art: the City Bass Band, the Chamber Orchestra, and the Orchestra of Russian Folk Instruments of the Novgorod Regional Philharmonic Society. This Creative City also recognizes the importance of youth participation in sustainable urban development and has incorporated music into a number of educational programmes throughout the city.Veliky Novgorod has previously hosted a variety of music-related events. For example, the annual International Festival of Musical Antiquities, which combines ethnomusicology and with musical performances, the Dialogue Culture and Arts Centre, a summer school for young aspiring musicians to develop and showcase their skills, and the Open Arts International Education Festival, which focused on areas such as vocals, choreography, visual arts, theatre, and instrumental performance. Many annual festivals are also held in the city centre. Added Value: As a Creative City of Music, Veliky Novgorod is dedicated: To increase attraction of cultural events through international collaboration and recognition;To encourage youth interaction through partnerships with other Creative Cities; To enhance the cultural potential of the urban community by exchanging best practices with other Creative Cities;To expand the cultural offerings for residence, to increase the number of music forums, and to ensure the growth of creative activity; andTo increase tourism and boost the creative economy.</t>
+          <t xml:space="preserve"> Veliky Novgorod Creative City has made significant contributions to the development of its local music culture over the years. This city’s cultural heritage echoes from the past, when ancient Novgorod was known for its epics and performances. This city is also the birthplace of the country’s traditional bell ringing, which eventually became a significant part of its music in the 18th and 19th centuries and was also essential in the development of Znamenny singing, a type of polyphonic liturgical singing that is now popular throughout the country and around the world. Veliky Novgorod is home to a number of cultural institutions, including music halls, theatres, educational organizations, and museums, and the city’s cultural sector employs over 2,000 people. Additionally, numerous professional ensembles represent musical art: the City Bass Band, the Chamber Orchestra, and the Orchestra of Russian Folk Instruments of the Novgorod Regional Philharmonic Society. This Creative City also recognizes the importance of youth participation in sustainable urban development and has incorporated music into a number of educational programmes throughout the city.Veliky Novgorod has previously hosted a variety of music-related events. For example, the annual International Festival of Musical Antiquities, which combines ethnomusicology and with musical performances, the Dialogue Culture and Arts Centre, a summer school for young aspiring musicians to develop and showcase their skills, and the Open Arts International Education Festival, which focused on areas such as vocals, choreography, visual arts, theatre, and instrumental performance. Many annual festivals are also held in the city centre. Added Value: As a Creative City of Music, Veliky Novgorod is dedicated: To increase attraction of cultural events through international collaboration and recognition;To encourage youth interaction through partnerships with other Creative Cities; To enhance the cultural potential of the urban community by exchanging best practices with other Creative Cities;To expand the cultural offerings for residence, to increase the number of music forums, and to ensure the growth of creative activity; andTo increase tourism and boost the creative economy.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>About the Creative City: Ouarzazate is considered to have a special place in the minds of film lovers. As one of the epicentres of cinema in the region, the Creative City hosted and continues to host the filming of numerous acclaimed films and TV series, with a yearly production ranging between 15 and 20 films. Ouarzazate has long been committed to making film a source of local development and social inclusion, as it stimulates local job opportunities, nurture fair and sustainable tourism and create synergies with other creative sectors, notably local crafts and folk art. Furthermore, the city draws on the dynamism of its film industry to empower youth and other groups from disadvantaged backgrounds, in particular by funding and organizing workshops and programmes to make the film sector accessible to all. Ouarzazate showcases how arts and creativity can transform a city, generate opportunities, stimulate tourism and strengthen social ties. Added Value:As a Creative City of Film, Ouarzazate is dedicated: To stimulating local economy and sustainable growth by promoting film entrepreneurship for all and synergizing with other local economic activities; To using the film sector to empower and create employment opportunities for women, youth and people with disabilities; To bringing together industry professionals to tackle specific film-related challenges, such as virtual reality, artificial intelligence, and digital distribution, as well as to ensure a sustainable and human-centered development of the sector; andTo promoting reasonable and sustainable tourism to strengthen local development, while respecting environmental priorities.</t>
+          <t xml:space="preserve"> Ouarzazate is considered to have a special place in the minds of film lovers. As one of the epicentres of cinema in the region, the Creative City hosted and continues to host the filming of numerous acclaimed films and TV series, with a yearly production ranging between 15 and 20 films. Ouarzazate has long been committed to making film a source of local development and social inclusion, as it stimulates local job opportunities, nurture fair and sustainable tourism and create synergies with other creative sectors, notably local crafts and folk art. Furthermore, the city draws on the dynamism of its film industry to empower youth and other groups from disadvantaged backgrounds, in particular by funding and organizing workshops and programmes to make the film sector accessible to all. Ouarzazate showcases how arts and creativity can transform a city, generate opportunities, stimulate tourism and strengthen social ties. Added Value:As a Creative City of Film, Ouarzazate is dedicated: To stimulating local economy and sustainable growth by promoting film entrepreneurship for all and synergizing with other local economic activities; To using the film sector to empower and create employment opportunities for women, youth and people with disabilities; To bringing together industry professionals to tackle specific film-related challenges, such as virtual reality, artificial intelligence, and digital distribution, as well as to ensure a sustainable and human-centered development of the sector; andTo promoting reasonable and sustainable tourism to strengthen local development, while respecting environmental priorities.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>About the Creative City: Penedo thrives on cultural diversity, displaying a preserved historical and artistic heritage. Its historic centre was established as a national heritage site by the Institute of National Historical and Artistic Heritage in 1996. Penedo’s architecture is cinematographic by nature, drawing many tourists each year, thus contributing to the city’s cultural diversity, reflected in its international music, literature, and film festivals. This city features Baroque churches along the São Francisco River, providing the picturesque backdrop for one of the city’s premier film festivals, such as the Penedo Film Circuit. A cinematic gem within Penedo is the iconic Cine Penedo complex, restored in 2023, containing a screening room, the Film School, and the Innovation Lab which all under the stewardship of the Federal University of Alagoas. Penedo’s greatest asset is its inhabitants, whose sense of belonging and cultural engagement shape the essence of this creative city. In addition, the city's creative economy manifests across diverse categories, with a significant emphasis on Film, marking pivotal moments in its cultural history. The city’s commitment to national and international cooperation is evident through a collaboration agreement with Santos, the only other City of Film in Latin America to date. Noteworthy collaborative efforts, such as a children’s education project on the Creative Economy in partnership with the creative Cities of Campina Grande, Fortaleza, and João Pessoa, underscore Penedo's willingness and capacity for cooperation. Added Value: As a Creative City of Film, Penedo is dedicated: To intensify international cooperation, fostering access to best practices and knowledge exchange;To play a proactive role within the Network, collaborating with cities across all clusters, especially in the field of film;To promote and support local artists and creators of film; and To anchor culture in public policies by reinforcing engagement and mobilizing local actors, aligning with the MONDIACULT 2022 declaration.</t>
+          <t xml:space="preserve"> Penedo thrives on cultural diversity, displaying a preserved historical and artistic heritage. Its historic centre was established as a national heritage site by the Institute of National Historical and Artistic Heritage in 1996. Penedo’s architecture is cinematographic by nature, drawing many tourists each year, thus contributing to the city’s cultural diversity, reflected in its international music, literature, and film festivals. This city features Baroque churches along the São Francisco River, providing the picturesque backdrop for one of the city’s premier film festivals, such as the Penedo Film Circuit. A cinematic gem within Penedo is the iconic Cine Penedo complex, restored in 2023, containing a screening room, the Film School, and the Innovation Lab which all under the stewardship of the Federal University of Alagoas. Penedo’s greatest asset is its inhabitants, whose sense of belonging and cultural engagement shape the essence of this creative city. In addition, the city's creative economy manifests across diverse categories, with a significant emphasis on Film, marking pivotal moments in its cultural history. The city’s commitment to national and international cooperation is evident through a collaboration agreement with Santos, the only other City of Film in Latin America to date. Noteworthy collaborative efforts, such as a children’s education project on the Creative Economy in partnership with the creative Cities of Campina Grande, Fortaleza, and João Pessoa, underscore Penedo's willingness and capacity for cooperation. Added Value: As a Creative City of Film, Penedo is dedicated: To intensify international cooperation, fostering access to best practices and knowledge exchange;To play a proactive role within the Network, collaborating with cities across all clusters, especially in the field of film;To promote and support local artists and creators of film; and To anchor culture in public policies by reinforcing engagement and mobilizing local actors, aligning with the MONDIACULT 2022 declaration.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>About the Creative City: Granada, in Nicaragua, draws on its outstanding historical and architectural heritage to pave the way for the artists and designers of tomorrow. Organized by the city, the "Oldest House" competition and the "Houses with History" programme offer local artists opportunities for creativity and raise inhabitants’ awareness of their city's architectural design and its preservation and development over time. The design of cultural products such as "La Chalupa Granadina", a board game based on local traditions and the city's cultural history, is actively supported and promoted by the city, in order to showcase its graphic design sector while raising its citizens’ awareness of the importance of preserving and safeguarding heritage. Granada identifies design as a source of sustainable, socially responsible economic development. Through its Local Creative Economy Commission, the city is developing programmes to raise the profile of designers and facilitate their access to employment. Examples include Nicaragua Emprende, a support platform for young designers' projects and ventures, and the CO-CREAMOS programme, which offers technical assistance to businesses and designers. Granada is also committed to making design a driving force for inclusion and social cohesion throughout the city. Through the Impulsarte programme, the arts are utilized to highlight the difficulties encountered by people with disabilities. Interdisciplinary creative dialogue, encouraged by Granada, empowers the most vulnerable and facilitates their socio-economic integration. Added value:As a Creative City of Design, Granada is dedicated to: Encouraging the exchange of knowledge and the promotion of culture and creativity through strong international cooperation;Ensuring continuity between cultural heritage and the cultural and creative sectors, with a view to building a sustainable city; andPromoting inclusion and access for the most vulnerable groups and young people to cultural and creative activities, particularly in the field of design, in order to strengthen its role as a vehicle for inclusion and social cohesion.</t>
+          <t xml:space="preserve"> Granada, in Nicaragua, draws on its outstanding historical and architectural heritage to pave the way for the artists and designers of tomorrow. Organized by the city, the "Oldest House" competition and the "Houses with History" programme offer local artists opportunities for creativity and raise inhabitants’ awareness of their city's architectural design and its preservation and development over time. The design of cultural products such as "La Chalupa Granadina", a board game based on local traditions and the city's cultural history, is actively supported and promoted by the city, in order to showcase its graphic design sector while raising its citizens’ awareness of the importance of preserving and safeguarding heritage. Granada identifies design as a source of sustainable, socially responsible economic development. Through its Local Creative Economy Commission, the city is developing programmes to raise the profile of designers and facilitate their access to employment. Examples include Nicaragua Emprende, a support platform for young designers' projects and ventures, and the CO-CREAMOS programme, which offers technical assistance to businesses and designers. Granada is also committed to making design a driving force for inclusion and social cohesion throughout the city. Through the Impulsarte programme, the arts are utilized to highlight the difficulties encountered by people with disabilities. Interdisciplinary creative dialogue, encouraged by Granada, empowers the most vulnerable and facilitates their socio-economic integration. Added value:As a Creative City of Design, Granada is dedicated to: Encouraging the exchange of knowledge and the promotion of culture and creativity through strong international cooperation;Ensuring continuity between cultural heritage and the cultural and creative sectors, with a view to building a sustainable city; andPromoting inclusion and access for the most vulnerable groups and young people to cultural and creative activities, particularly in the field of design, in order to strengthen its role as a vehicle for inclusion and social cohesion.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>About the Creative City: In Bydgoszcz, music has been a constant element through social changes, reminding residents of their heritage and inspiring forward-thinking ideas. For years, Bydgoszcz has distinguished itself for its strong cultural engagement. The city’s future is closely tied to its rich cultural background, which supports sustainable development, social unity, and a high quality of life for the city’s residents. Among its many vibrant creative fields, the local music scene stands out, and features a diverse community, encompassing classical, jazz, folk, alternative, and hip-hop traditions. The city hosts renowned music institutions, organizes 12 music festivals and around 80 open-air concerts each year, and supports over 330 music-related businesses, showcasing the impact of music on the city’s economy. Most importantly, Bydgoszcz is a hub for innovative and unconventional initiatives, fostering a strong creative movement. As a UNESCO Creative City of Music, Bydgoszcz celebrates its musical heritage while nurturing innovation in the field of music. Added Value: As a Creative City of Music, Bydgoszcz is dedicated:To strengthen cooperation with other UCCN members and different local institutions;To establish international talent development platforms, cross-sectoral projects, as well as global music expos, to broaden and support the global creative industries;To set up exchange networks to enable the sharing of good practices;To create policies that support entrepreneurship, creativity, and innovation and ensuring lifelong learning and education; andTo improve access, strengthen the creation and dissemination of music and arts, and increase participation in cultural life.</t>
+          <t xml:space="preserve"> In Bydgoszcz, music has been a constant element through social changes, reminding residents of their heritage and inspiring forward-thinking ideas. For years, Bydgoszcz has distinguished itself for its strong cultural engagement. The city’s future is closely tied to its rich cultural background, which supports sustainable development, social unity, and a high quality of life for the city’s residents. Among its many vibrant creative fields, the local music scene stands out, and features a diverse community, encompassing classical, jazz, folk, alternative, and hip-hop traditions. The city hosts renowned music institutions, organizes 12 music festivals and around 80 open-air concerts each year, and supports over 330 music-related businesses, showcasing the impact of music on the city’s economy. Most importantly, Bydgoszcz is a hub for innovative and unconventional initiatives, fostering a strong creative movement. As a UNESCO Creative City of Music, Bydgoszcz celebrates its musical heritage while nurturing innovation in the field of music. Added Value: As a Creative City of Music, Bydgoszcz is dedicated:To strengthen cooperation with other UCCN members and different local institutions;To establish international talent development platforms, cross-sectoral projects, as well as global music expos, to broaden and support the global creative industries;To set up exchange networks to enable the sharing of good practices;To create policies that support entrepreneurship, creativity, and innovation and ensuring lifelong learning and education; andTo improve access, strengthen the creation and dissemination of music and arts, and increase participation in cultural life.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>About the Creative City: Battambang's designation as a UNESCO Creative City is a significant achievement that brings the rich gastronomic heritage of the city into focus. The city leverages creativity in various forms, including gastronomy, as a driving force for sustainable urban development. Gastronomy, with its deep-rooted connection to rich traditional cuisine and rice-based products, is acknowledged as a key contributor to the city's progress. Battambang's designation not only showcases its exceptional culinary offerings but also harnesses the power of gastronomy to enhance local development and foster global cultural exchange.Battambang has made great efforts to promote gastronomy and enhance the value of local cuisine. Initiatives such as the establishment of a night market on the riverbank and the development of a recycling and compost system, in collaboration with development partners, have benefited local producers, retailers, hoteliers, and various stakeholders. The renovation of Battambang food street along the Sangkae river, officially inaugurated during the River Festival in March 2020, stands as a testament to the city's commitment to promoting and improving the appreciation of local gastronomy, both regionally and globally. This festival brought together restaurants, food stands, local sellers, and an array of local products and culinary delights.Several past initiatives have contributed to the city's gastronomic growth. In 2019, the “One Village, One Product” initiative allowed gastronomic communities to maintain and promote their products and experiences among local communities. A Street Food project, in close collaboration with the private sector, was arranged in 2019 to promote local gastronomic food and products and encourage communities to share their experiences and good practices. Also, in 2020 and 2023, the city organized 16 local and foreign product exhibitions with the aim of exchanging knowledge of gastronomical practices and promoting local products.  Added Value: As a Creative City of Gastronomy, Battambang is dedicated: To strengthen collaboration at a national level, fostering partnerships with Ministries, the private sector, NGOs, and the local population to promote the UCCN and its importance;To serve as an example of creativity and innovation in the field of Gastronomy, both on a national and international level;To encourage professionals and youth to acquire enhanced knowledge and skills to help promote the field of gastronomy;To promote innovation in gastronomy and facilitate exchange with other Creative Cities; andTo utilize the Network and its mission to fuel socio-economic development, through revitalizing gastronomy, connecting it with cultural assets, and increasing tourism and opportunities within the city.</t>
+          <t xml:space="preserve"> Battambang's designation as a UNESCO Creative City is a significant achievement that brings the rich gastronomic heritage of the city into focus. The city leverages creativity in various forms, including gastronomy, as a driving force for sustainable urban development. Gastronomy, with its deep-rooted connection to rich traditional cuisine and rice-based products, is acknowledged as a key contributor to the city's progress. Battambang's designation not only showcases its exceptional culinary offerings but also harnesses the power of gastronomy to enhance local development and foster global cultural exchange.Battambang has made great efforts to promote gastronomy and enhance the value of local cuisine. Initiatives such as the establishment of a night market on the riverbank and the development of a recycling and compost system, in collaboration with development partners, have benefited local producers, retailers, hoteliers, and various stakeholders. The renovation of Battambang food street along the Sangkae river, officially inaugurated during the River Festival in March 2020, stands as a testament to the city's commitment to promoting and improving the appreciation of local gastronomy, both regionally and globally. This festival brought together restaurants, food stands, local sellers, and an array of local products and culinary delights.Several past initiatives have contributed to the city's gastronomic growth. In 2019, the “One Village, One Product” initiative allowed gastronomic communities to maintain and promote their products and experiences among local communities. A Street Food project, in close collaboration with the private sector, was arranged in 2019 to promote local gastronomic food and products and encourage communities to share their experiences and good practices. Also, in 2020 and 2023, the city organized 16 local and foreign product exhibitions with the aim of exchanging knowledge of gastronomical practices and promoting local products.  Added Value: As a Creative City of Gastronomy, Battambang is dedicated: To strengthen collaboration at a national level, fostering partnerships with Ministries, the private sector, NGOs, and the local population to promote the UCCN and its importance;To serve as an example of creativity and innovation in the field of Gastronomy, both on a national and international level;To encourage professionals and youth to acquire enhanced knowledge and skills to help promote the field of gastronomy;To promote innovation in gastronomy and facilitate exchange with other Creative Cities; andTo utilize the Network and its mission to fuel socio-economic development, through revitalizing gastronomy, connecting it with cultural assets, and increasing tourism and opportunities within the city.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>About the Creative City:The Creative City of Banja Luka envisions its growth through a path of integration and modernization, with a belief that culture, and creative industries are the cornerstone of sustainable urban development. Located at the crossroads ofcivilizations and traditions, Banja Luka is home to different religious communities and temples having a lasting impact on the city’s style of music. The vibrant city inspired Quincy Jones to compose a piece titled ‘Banja Luka’ in 1961.Banja Luka’s cultural offerings are as diverse as they are unique. The city hosts cultural institutions such as Banski dvor Cultural Centre, the National and Children's Theatre, the Peoples Museum, the Museum of Contemporary Art, the Student Theatre, the City Theatre “Jazavac”, and numerous galleries that organize a variety of cultural events throughout the year. Besides the Primary and Secondary Music School with over 1,300 students and the Music Academy, Banja Luka also hosts the Symphony Orchestra, the Municipal Tambura Orchestra, the choir “Jedinstvo”, the “Women's Chamber Choir “Banjalucanke”, and the “Rock Symphony” ensemble. From the Banja Luka FEST international music festivals, to “Demofest”, “Balkan Fest”, “Autumn Sonata”, and many more, the city is also renowned for its numerous music festivals and events that fill the calendar every year.  Added Value: As a Creative City of Music, Banja Luka is dedicated:To increase the number of musical facilities and resources to foster vibrant musical institutions;To provide support for the organization of various musical events and activities, ensuring a thriving cultural landscape;To promote the values and missions of the UCCN and its mission within its efforts, contributing to the global artistic and cultural community.</t>
+          <t>The Creative City of Banja Luka envisions its growth through a path of integration and modernization, with a belief that culture, and creative industries are the cornerstone of sustainable urban development. Located at the crossroads ofcivilizations and traditions, Banja Luka is home to different religious communities and temples having a lasting impact on the city’s style of music. The vibrant city inspired Quincy Jones to compose a piece titled ‘Banja Luka’ in 1961.Banja Luka’s cultural offerings are as diverse as they are unique. The city hosts cultural institutions such as Banski dvor Cultural Centre, the National and Children's Theatre, the Peoples Museum, the Museum of Contemporary Art, the Student Theatre, the City Theatre “Jazavac”, and numerous galleries that organize a variety of cultural events throughout the year. Besides the Primary and Secondary Music School with over 1,300 students and the Music Academy, Banja Luka also hosts the Symphony Orchestra, the Municipal Tambura Orchestra, the choir “Jedinstvo”, the “Women's Chamber Choir “Banjalucanke”, and the “Rock Symphony” ensemble. From the Banja Luka FEST international music festivals, to “Demofest”, “Balkan Fest”, “Autumn Sonata”, and many more, the city is also renowned for its numerous music festivals and events that fill the calendar every year.  Added Value: As a Creative City of Music, Banja Luka is dedicated:To increase the number of musical facilities and resources to foster vibrant musical institutions;To provide support for the organization of various musical events and activities, ensuring a thriving cultural landscape;To promote the values and missions of the UCCN and its mission within its efforts, contributing to the global artistic and cultural community.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>About the Creative City: Literature has played a pivotal role in shaping Buffalo City’s history and development, laying strong foundations and making remarkable contributions. The city's literary legacy is defined by a rich heritage influenced by historical events, cultural influences, and a diverse range of voices. Literary works emerging from this region reflect the experiences, perspectives, and aspirations of Buffalo City's residents, forging a unique local identity.Moreover, literature stands as a tool for cultural expression and storytelling in Buffalo City. Local authors have delved into themes that touch upon the city's history, traditions, social realities, and aspirations. Through their literary creations, they have documented and celebrated the city's cultural diversity, effectively preserving its rich cultural heritage.In the fields of education and intellectual development, literature has been a driving force in the city. Buffalo City hosts various initiatives, including writing conferences such as ‘Mother Tongue’ and the Based Bilingual Education Conference, offering platforms for professional growth, networking, and skill-building. The city also organizes book fairs and expos, like the Joy of Book Fair held as part of the Umtiza Arts Festival programme. These events provide authors, publishers, and literary professionals with opportunities to showcase their works, connect with readers, and explore economic prospects.  Added Value: As a Creative City of Literature, Buffalo City is dedicated:To encourage collaboration and cultural understanding among Creative Cities, facilitating cross-cultural residencies for writers and literary professionals, fostering the exchange of ideas and collaboration on projects;To promote festivals and events both within the Network and on a global scale; and To establish a digital hub for literary content and virtual events, creating engagement at local, national and international levels and enhancing literary innovation.</t>
+          <t xml:space="preserve"> Literature has played a pivotal role in shaping Buffalo City’s history and development, laying strong foundations and making remarkable contributions. The city's literary legacy is defined by a rich heritage influenced by historical events, cultural influences, and a diverse range of voices. Literary works emerging from this region reflect the experiences, perspectives, and aspirations of Buffalo City's residents, forging a unique local identity.Moreover, literature stands as a tool for cultural expression and storytelling in Buffalo City. Local authors have delved into themes that touch upon the city's history, traditions, social realities, and aspirations. Through their literary creations, they have documented and celebrated the city's cultural diversity, effectively preserving its rich cultural heritage.In the fields of education and intellectual development, literature has been a driving force in the city. Buffalo City hosts various initiatives, including writing conferences such as ‘Mother Tongue’ and the Based Bilingual Education Conference, offering platforms for professional growth, networking, and skill-building. The city also organizes book fairs and expos, like the Joy of Book Fair held as part of the Umtiza Arts Festival programme. These events provide authors, publishers, and literary professionals with opportunities to showcase their works, connect with readers, and explore economic prospects.  Added Value: As a Creative City of Literature, Buffalo City is dedicated:To encourage collaboration and cultural understanding among Creative Cities, facilitating cross-cultural residencies for writers and literary professionals, fostering the exchange of ideas and collaboration on projects;To promote festivals and events both within the Network and on a global scale; and To establish a digital hub for literary content and virtual events, creating engagement at local, national and international levels and enhancing literary innovation.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>About the Creative City: Montreux has long made music a central element of its development strategy. Since 1967, the city, located on the shores of Lake Geneva, has hosted the Montreux Jazz Festival (MJF), which was voted as the best European festival in 2023 in the Arthur Awards. Fulfilling the inclusive nature of music through programmes such as "La Chaise Rouge" and "Tous en chœur", Montreux has demonstrated its commitment to achieving Sustainable Development Goal 10 "Reduced Inequalities". The Creative City also encourages and funds innovation and the development of local musical initiatives, such as the Chœur Oratorio, Arabesque and Fifres et Tambours associations, which helps strengthening social ties and promoting bottom-up and participative approaches.In line with UNESCO's mandate and objectives, Montreux is committed to safeguarding its musical heritage notably with more than 5,000 hours of high-resolution digitized archives of the MJF, which constitute the largest collection of contemporary live music in the world. With this in mind, Montreux has been active in developing and implementing effective projects aimed at making the city's cultural activities sustainable, in particular through its Réenchanter la Ville programme. Added Value:As a Creative City of Music, Montreux is dedicated: To ensuring the safeguarding of live music heritage with a view to laying a solid foundation for a fairer and more sustainable future;To fostering sustainable economic development by creating synergies among various creative fields to optimize cultural development possibilities;To supporting emerging talents and empower youth in cultural sectors, especially in the creative sector of Music; To ensuring and facilitating access to culture for all; andTo encouraging bottom-up patterns in the field of culture through a strong support of local and community cultural initiatives.</t>
+          <t xml:space="preserve"> Montreux has long made music a central element of its development strategy. Since 1967, the city, located on the shores of Lake Geneva, has hosted the Montreux Jazz Festival (MJF), which was voted as the best European festival in 2023 in the Arthur Awards. Fulfilling the inclusive nature of music through programmes such as "La Chaise Rouge" and "Tous en chœur", Montreux has demonstrated its commitment to achieving Sustainable Development Goal 10 "Reduced Inequalities". The Creative City also encourages and funds innovation and the development of local musical initiatives, such as the Chœur Oratorio, Arabesque and Fifres et Tambours associations, which helps strengthening social ties and promoting bottom-up and participative approaches.In line with UNESCO's mandate and objectives, Montreux is committed to safeguarding its musical heritage notably with more than 5,000 hours of high-resolution digitized archives of the MJF, which constitute the largest collection of contemporary live music in the world. With this in mind, Montreux has been active in developing and implementing effective projects aimed at making the city's cultural activities sustainable, in particular through its Réenchanter la Ville programme. Added Value:As a Creative City of Music, Montreux is dedicated: To ensuring the safeguarding of live music heritage with a view to laying a solid foundation for a fairer and more sustainable future;To fostering sustainable economic development by creating synergies among various creative fields to optimize cultural development possibilities;To supporting emerging talents and empower youth in cultural sectors, especially in the creative sector of Music; To ensuring and facilitating access to culture for all; andTo encouraging bottom-up patterns in the field of culture through a strong support of local and community cultural initiatives.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>About the Creative City: Designated European Youth Capital in 2019 and European Capital of Culture in 2022, Novi Sad places creativity at the heart of its sustainable urban development strategy. In recognition of Novi Sad's innovative approach towards supporting its creative sector, these nominations have enhanced the cultural vibrancy of the city, which allocates 6% of its budget to supporting the sector. This Creative City relies on an extensive network of local associations to develop its activities in support of media arts: New Media Center kuda.org, Videomedeja, Union of Associations of Fine Artists of Vojvodina and Multimedia Center Led Art. Thanks to the success of these partnerships, Novi Sad hosted the famous Computer Graphics and Arts Conference (CGA) in 2022, a touring conference that brings together graphic design artists from all over the world for 4 days of meetings and workshops dedicated to media arts. The city has also staged the "Tesla-Light Gallery", an exhibition of light designed by European and Japanese artists, using laser technology and projection mapping to reinterpret built spaces.Novi Sad also nurtures its thriving cultural scene by creating spaces that are conducive to creativity. On the one hand, the annual "Docek" initiative, led by designers’ and artists’ associations, organizes a festival giving local musicians and digital artists the opportunity to present their creations to an international audience. On the other hand, Novi Sad provides the local creative sector with a 40,000 m² space for displaying and producing artworks, including a gallery dedicated to media arts. Added value:As a Creative City of Media Arts, Novi Sad is dedicated to: Strengthening international cooperation to harness culture and creativity for the benefit of sustainable urban development; Providing an urban setting conducive to the emergence of talent and the expression of creativity by digital artists, in particular by establishing new partnerships; andMaking creative venues available and organizing events for media arts, laying the foundations for a more inclusive and sustainable society through access to culture.</t>
+          <t xml:space="preserve"> Designated European Youth Capital in 2019 and European Capital of Culture in 2022, Novi Sad places creativity at the heart of its sustainable urban development strategy. In recognition of Novi Sad's innovative approach towards supporting its creative sector, these nominations have enhanced the cultural vibrancy of the city, which allocates 6% of its budget to supporting the sector. This Creative City relies on an extensive network of local associations to develop its activities in support of media arts: New Media Center kuda.org, Videomedeja, Union of Associations of Fine Artists of Vojvodina and Multimedia Center Led Art. Thanks to the success of these partnerships, Novi Sad hosted the famous Computer Graphics and Arts Conference (CGA) in 2022, a touring conference that brings together graphic design artists from all over the world for 4 days of meetings and workshops dedicated to media arts. The city has also staged the "Tesla-Light Gallery", an exhibition of light designed by European and Japanese artists, using laser technology and projection mapping to reinterpret built spaces.Novi Sad also nurtures its thriving cultural scene by creating spaces that are conducive to creativity. On the one hand, the annual "Docek" initiative, led by designers’ and artists’ associations, organizes a festival giving local musicians and digital artists the opportunity to present their creations to an international audience. On the other hand, Novi Sad provides the local creative sector with a 40,000 m² space for displaying and producing artworks, including a gallery dedicated to media arts. Added value:As a Creative City of Media Arts, Novi Sad is dedicated to: Strengthening international cooperation to harness culture and creativity for the benefit of sustainable urban development; Providing an urban setting conducive to the emergence of talent and the expression of creativity by digital artists, in particular by establishing new partnerships; andMaking creative venues available and organizing events for media arts, laying the foundations for a more inclusive and sustainable society through access to culture.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>About the Creative City: From mediaeval lyric academies to Rio Loco, an internationally renowned world music festival, music occupies a special place in Toulouse. The city boasts a varied musical heritage, combining urban music, world music, traditional music and much more. True to this music-loving tradition, the city actively supports local artists through its METRONUM programme, aimed at supporting and helping musicians in their professional projects, by facilitating dialogue with concert hall managers and local councillors, and in particular by supporting women in the sector. During the COVID-19 pandemic, Toulouse stood by musicians with the creation of an emergency fund to support the local cultural sector. At the height of the pandemic, the city set up the performance support scheme, "Les Instantanés", to enable open-air concerts to be held in the city. Toulouse is committed to making access to music one of the priorities of its cultural policy.With its dynamic citizen-led initiatives, the city links music to urban development. Examples include Tactikollectif, which works to support disadvantaged neighbourhoods through musical expression, and Court-Circuit, which poeticizes urban public spaces through music.By devoting half of the budget earmarked for culture to music, and by supporting infrastructure, educational schemes and associations that invite the local residents to forge a "Convivencia" (sense of community) experienced as a shared creative resource, Toulouse is leveraging music as a key tool in building a sustainable city. Added value:As a Creative City of Music, Toulouse is dedicated to: Supporting the creation, production and distribution of cultural goods and services;Facilitating access to artistic practices and creativity for the most vulnerable, harnessing the transformative power of culture;Initiating debates on music and its potential for social innovation, by bringing together artists, cultural operators, musicologists, ethnologists, sociologists and civil society to address contemporary needs; andStrengthening its cultural ecosystem by fairly redistributing social and economic benefits among the various stakeholders of the cultural sector.</t>
+          <t xml:space="preserve"> From mediaeval lyric academies to Rio Loco, an internationally renowned world music festival, music occupies a special place in Toulouse. The city boasts a varied musical heritage, combining urban music, world music, traditional music and much more. True to this music-loving tradition, the city actively supports local artists through its METRONUM programme, aimed at supporting and helping musicians in their professional projects, by facilitating dialogue with concert hall managers and local councillors, and in particular by supporting women in the sector. During the COVID-19 pandemic, Toulouse stood by musicians with the creation of an emergency fund to support the local cultural sector. At the height of the pandemic, the city set up the performance support scheme, "Les Instantanés", to enable open-air concerts to be held in the city. Toulouse is committed to making access to music one of the priorities of its cultural policy.With its dynamic citizen-led initiatives, the city links music to urban development. Examples include Tactikollectif, which works to support disadvantaged neighbourhoods through musical expression, and Court-Circuit, which poeticizes urban public spaces through music.By devoting half of the budget earmarked for culture to music, and by supporting infrastructure, educational schemes and associations that invite the local residents to forge a "Convivencia" (sense of community) experienced as a shared creative resource, Toulouse is leveraging music as a key tool in building a sustainable city. Added value:As a Creative City of Music, Toulouse is dedicated to: Supporting the creation, production and distribution of cultural goods and services;Facilitating access to artistic practices and creativity for the most vulnerable, harnessing the transformative power of culture;Initiating debates on music and its potential for social innovation, by bringing together artists, cultural operators, musicologists, ethnologists, sociologists and civil society to address contemporary needs; andStrengthening its cultural ecosystem by fairly redistributing social and economic benefits among the various stakeholders of the cultural sector.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>About the Creative City: The City of Varaždin is renowned for its cultural heritage, historical landscape, and a thriving musical life within both classical and contemporary genres. With 44,000 inhabitants, it acts as a regional cultural hub hosting various events and festivals throughout the year. Varaždin features a rich cultural heritage, lively cultural institutions, and a sought-after festival season, including the Varaždin School of Music and Baroque Evenings festival.The city is home to 2,500 musicians, including singers, instrumentalists, soloists, composers, music student, dancers, and beginner and professional artists, actively participating in 30 associations, institutions, and societies. Engaging in partnerships and cultural exchanges with cities from its region and beyond, Varaždin hosts workshops and conferences in music, opera, dance, filmmaking, conservation, and folk arts.Investing in renewal, Varaždin maintains its Public Open University, providing free public training for professionals, and restores and extends cultural institutions such as the Croatian National Theatre, the City Library, and the historic Synagogue. These institutions serve local and visiting audiences with modernized facilities hosting a variety of art forms. The city is committed to providing a diverse cultural offer tailored to the needs of its citizens, facilitating integration, and attracting visitors from within and outside the country. The city also hosts a wide variety of creative activities through festivals, including KLIKER Festival, Ikar Fest, Trash Film Festival, VAFI - International Children and Youth Animated Film Festival, COFA - Contemporary Folklore Adventure, and FolkoFonija Festival. Added Value: As a Creative City of Music, Varaždin is dedicated: To diversify the city’s cultural offering to attract young audiences;To leverage music as a tool for social integration and cross-cultural dialogue;To strengthen the city’s role as a hub of learning and innovation;To actively engage stakeholders, investors, businesses, and creatives; and To carry out cultural projects with continued involvement of stakeholders.</t>
+          <t xml:space="preserve"> The City of Varaždin is renowned for its cultural heritage, historical landscape, and a thriving musical life within both classical and contemporary genres. With 44,000 inhabitants, it acts as a regional cultural hub hosting various events and festivals throughout the year. Varaždin features a rich cultural heritage, lively cultural institutions, and a sought-after festival season, including the Varaždin School of Music and Baroque Evenings festival.The city is home to 2,500 musicians, including singers, instrumentalists, soloists, composers, music student, dancers, and beginner and professional artists, actively participating in 30 associations, institutions, and societies. Engaging in partnerships and cultural exchanges with cities from its region and beyond, Varaždin hosts workshops and conferences in music, opera, dance, filmmaking, conservation, and folk arts.Investing in renewal, Varaždin maintains its Public Open University, providing free public training for professionals, and restores and extends cultural institutions such as the Croatian National Theatre, the City Library, and the historic Synagogue. These institutions serve local and visiting audiences with modernized facilities hosting a variety of art forms. The city is committed to providing a diverse cultural offer tailored to the needs of its citizens, facilitating integration, and attracting visitors from within and outside the country. The city also hosts a wide variety of creative activities through festivals, including KLIKER Festival, Ikar Fest, Trash Film Festival, VAFI - International Children and Youth Animated Film Festival, COFA - Contemporary Folklore Adventure, and FolkoFonija Festival. Added Value: As a Creative City of Music, Varaždin is dedicated: To diversify the city’s cultural offering to attract young audiences;To leverage music as a tool for social integration and cross-cultural dialogue;To strengthen the city’s role as a hub of learning and innovation;To actively engage stakeholders, investors, businesses, and creatives; and To carry out cultural projects with continued involvement of stakeholders.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>About the Creative City: Steeped in a rich agricultural heritage, Nkongsamba is famous for its local production, such as coffee (grown in the region since the colonial era under German control in 1884, and then under French control in 1916) and Penja pepper (considered by many chefs to be one of the best peppercorns in the world), and has an outstanding gastronomic tradition. The Creative City and local associations capitalize on this cultural wealth by organizing events and festivals, such as DYOM, Ekala Mba Ni Nkem and the "Moungo Land" gastronomic days, which bring the people of Nkongsamba together around their local culinary heritage, while strengthening cooperation between public and social partners. Moreover, Nkongsamba invests in the preservation and promotion of traditional restaurants, to mainstream and disseminate culinary traditions while encouraging the use of short food supply chains. The city plans to open a Coffee Museum to showcase the local tradition of coffee growing and raise awareness of the challenges of modern, sustainable agriculture. In a bid to develop sustainable tourism around these initiatives and ensure their long-term viability, the city is working on setting up the "Moungo Taste Trail", a planned tourist route providing an immersive insight into Nkongsamba's extensive gastronomic heritage.              Added value:As a Creative City of Gastronomy, Nkongsamba is dedicated to: Strengthening the development of the region's gastronomic sector, in recognition of its contribution to local sustainable development; Safeguarding and promoting the city's long-standing agricultural and culinary heritage, notably by creating traditional restaurants to uphold the enduring legacy of local flavours and dishes; Encouraging the development of centres for the mainstreaming of culinary practices to enable the preservation and transmission of local culinary knowledge; and Supporting the sustainable development of the gastronomy and tourism sectors, in a manner that is respectful of all producers and gives precedence to local resources and the short food supply chain model.</t>
+          <t xml:space="preserve"> Steeped in a rich agricultural heritage, Nkongsamba is famous for its local production, such as coffee (grown in the region since the colonial era under German control in 1884, and then under French control in 1916) and Penja pepper (considered by many chefs to be one of the best peppercorns in the world), and has an outstanding gastronomic tradition. The Creative City and local associations capitalize on this cultural wealth by organizing events and festivals, such as DYOM, Ekala Mba Ni Nkem and the "Moungo Land" gastronomic days, which bring the people of Nkongsamba together around their local culinary heritage, while strengthening cooperation between public and social partners. Moreover, Nkongsamba invests in the preservation and promotion of traditional restaurants, to mainstream and disseminate culinary traditions while encouraging the use of short food supply chains. The city plans to open a Coffee Museum to showcase the local tradition of coffee growing and raise awareness of the challenges of modern, sustainable agriculture. In a bid to develop sustainable tourism around these initiatives and ensure their long-term viability, the city is working on setting up the "Moungo Taste Trail", a planned tourist route providing an immersive insight into Nkongsamba's extensive gastronomic heritage.              Added value:As a Creative City of Gastronomy, Nkongsamba is dedicated to: Strengthening the development of the region's gastronomic sector, in recognition of its contribution to local sustainable development; Safeguarding and promoting the city's long-standing agricultural and culinary heritage, notably by creating traditional restaurants to uphold the enduring legacy of local flavours and dishes; Encouraging the development of centres for the mainstreaming of culinary practices to enable the preservation and transmission of local culinary knowledge; and Supporting the sustainable development of the gastronomy and tourism sectors, in a manner that is respectful of all producers and gives precedence to local resources and the short food supply chain model.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>About the Creative City: As the music capital of the state of Baja California, Mexicali leverages music as a driving force for social cohesion and sustainable development on a local scale. Its commitment to culture is reflected in the city's economic growth, with the sector employing over 6,000 people, 26% of whom are musicians and related professionals. To showcase its rich musical heritage, Mexicali encourages the hosting of all kinds of music events: 88 events were organized between 2019 and 2023, providing a platform for more than 250 local artists to perform, express themselves and disseminate their art. Mexicali organizes Cultural Sundays, during which musicians come and play in the streets of the historic city centre, facilitating access to music for all citizens. This Creative City initiative is also an opportunity to raise awareness among all residents of the importance of preserving the city's historic centre and intangible heritage. Mexicali has also launched a campaign to repurpose disused areas of the historic centre. The old buildings are being transformed into concert halls and performance spaces, strengthening the city's musical fabric.  Added value:As a Creative City of Music, Mexicali is dedicated to: Improving the quality of life of all its citizens by actively supporting culture and creativity, particularly in the field of music;Promoting the activities and productions of local musicians and ensuring the economic viability of the sector; andStrengthening cohesion between artists, music industry professionals, cultural institutions and citizens in order to build a sustainable cultural and creative community.</t>
+          <t xml:space="preserve"> As the music capital of the state of Baja California, Mexicali leverages music as a driving force for social cohesion and sustainable development on a local scale. Its commitment to culture is reflected in the city's economic growth, with the sector employing over 6,000 people, 26% of whom are musicians and related professionals. To showcase its rich musical heritage, Mexicali encourages the hosting of all kinds of music events: 88 events were organized between 2019 and 2023, providing a platform for more than 250 local artists to perform, express themselves and disseminate their art. Mexicali organizes Cultural Sundays, during which musicians come and play in the streets of the historic city centre, facilitating access to music for all citizens. This Creative City initiative is also an opportunity to raise awareness among all residents of the importance of preserving the city's historic centre and intangible heritage. Mexicali has also launched a campaign to repurpose disused areas of the historic centre. The old buildings are being transformed into concert halls and performance spaces, strengthening the city's musical fabric.  Added value:As a Creative City of Music, Mexicali is dedicated to: Improving the quality of life of all its citizens by actively supporting culture and creativity, particularly in the field of music;Promoting the activities and productions of local musicians and ensuring the economic viability of the sector; andStrengthening cohesion between artists, music industry professionals, cultural institutions and citizens in order to build a sustainable cultural and creative community.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>About the Creative City: The city of Kutaisi hosts 20 libraries, a dynamic university literature department, and dozens of literary events throughout the year, including public readings, antiquarian book sales and poetry recitals. This ensemble forms a solid basis for the roll-out of ambitious cultural policies. For example, the Creative City actively fosters the development of institutions that disseminate literary works and strive to achieve the 2030 Agenda Sustainable Development Goals. These include the Youth Palace, which offers all children the opportunity to learn, to read and to write, thereby contributing to youth intellectual empowerment. Kutaisi is striving to bolster international cultural cooperation. As host of the EU4 Culture regional conference and the Council of Europe's 10th Cultural Routes Annual Advisory Forum, the city endeavours to enhance regional cooperation to improve the status of artists and the economic sustainability of the cultural and creative industries.In addition, Kutaisi is planning to draw on the Network's strengths to launch an international literary festival in the near future, with the aim of promoting cultural diversity, energizing the local literary sector and emphasizing the international dimension of the city's cultural policy. Kutaisi also intends to continue supporting young people, in collaboration with its network of public libraries and by offering workshops and training courses for young writers, publishers and translators. This initiative will go hand-in-hand with efforts to encourage cross-sectoral creative projects, particularly between the literary and media arts sectors, to safeguard the city's written heritage.  Added value:As a Creative City of Literature, Kutaisi is dedicated to: Promoting a more inclusive cultural and creative sector by involving social and private partners in initiatives that raise awareness of the issues faced by vulnerable urban populations;Bolstering international cooperation through artist residency programmes, joint projects and festivals to encourage collaboration and exchanges between artists and book professionals from different backgrounds;Financially supporting the sustainable growth of the cultural and creative sector, particularly the literature sector; andProviding inclusive and equal education to guarantee access to culture for all.</t>
+          <t xml:space="preserve"> The city of Kutaisi hosts 20 libraries, a dynamic university literature department, and dozens of literary events throughout the year, including public readings, antiquarian book sales and poetry recitals. This ensemble forms a solid basis for the roll-out of ambitious cultural policies. For example, the Creative City actively fosters the development of institutions that disseminate literary works and strive to achieve the 2030 Agenda Sustainable Development Goals. These include the Youth Palace, which offers all children the opportunity to learn, to read and to write, thereby contributing to youth intellectual empowerment. Kutaisi is striving to bolster international cultural cooperation. As host of the EU4 Culture regional conference and the Council of Europe's 10th Cultural Routes Annual Advisory Forum, the city endeavours to enhance regional cooperation to improve the status of artists and the economic sustainability of the cultural and creative industries.In addition, Kutaisi is planning to draw on the Network's strengths to launch an international literary festival in the near future, with the aim of promoting cultural diversity, energizing the local literary sector and emphasizing the international dimension of the city's cultural policy. Kutaisi also intends to continue supporting young people, in collaboration with its network of public libraries and by offering workshops and training courses for young writers, publishers and translators. This initiative will go hand-in-hand with efforts to encourage cross-sectoral creative projects, particularly between the literary and media arts sectors, to safeguard the city's written heritage.  Added value:As a Creative City of Literature, Kutaisi is dedicated to: Promoting a more inclusive cultural and creative sector by involving social and private partners in initiatives that raise awareness of the issues faced by vulnerable urban populations;Bolstering international cooperation through artist residency programmes, joint projects and festivals to encourage collaboration and exchanges between artists and book professionals from different backgrounds;Financially supporting the sustainable growth of the cultural and creative sector, particularly the literature sector; andProviding inclusive and equal education to guarantee access to culture for all.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>About the Creative City: Montecristi is world-famous for its production of hand-woven toquilla straw hats, which are sold in over 60 countries and whose manufacturing process was inscribed on UNESCO's Representative List of the Intangible Cultural Heritage of Humanity in 2012. To date, the Creative City counts 1,200 representatives of this cross-generational art form. It plays a key role in the city's economic development, generating 30% of all jobs in the urban area. With the support of its partners, Montecristi is committed to keeping this traditional craft alive. The "Toquilla Straw Hat Route" and "Cerro de hojas y Jaboncillo" programmes have paved the way to spaces for creation and training in folk art, housed within old buildings in the city. In collaboration with the national Technical Secretariat for Apprenticeships, 15% of craftspeople have been trained in new sustainable production methods and 40% in setting up viable businesses. The city invests in training and the construction of infrastructure for its craft industry which has acquired a strong reputation, thanks to the specific nature of the local intangible heritage, skills and weaving techniques. Cultural activities promoting this heritage to the public, such as "Ciudad Alfaro" and the International Toquilla Straw Weaving Festival, all represent opportunities to showcase the city's thriving creative sector, with concerts, photo exhibitions and documentary screenings.By joining the Network, Montecristi hopes to strengthen international cooperation around traditional craft methods and intellectual property. By working closely with other members of the Network, the city intends to celebrate the work of craftspeople, help them to protect their know-how and champion ethical and sustainable craftsmanship.      Added value:As a Creative City of Crafts and Folk Art, Montecristi is dedicated to: Increasing international cooperation with other Creative Cities to enhance local cultural sectors through the exchange of good practices and experience;Encouraging the introduction of sustainable methods in the crafts and folk art sector, by giving precedence to the sustainable use of natural resources and the implementation of environmentally-friendly production techniques;Supporting the empowerment of local craftspeople and entrepreneurs in the creative sector through lifelong learning and easier access to markets and finance; andBoosting cultural tourism by digitizing the city's cultural heritage and organizing craft festivals.</t>
+          <t xml:space="preserve"> Montecristi is world-famous for its production of hand-woven toquilla straw hats, which are sold in over 60 countries and whose manufacturing process was inscribed on UNESCO's Representative List of the Intangible Cultural Heritage of Humanity in 2012. To date, the Creative City counts 1,200 representatives of this cross-generational art form. It plays a key role in the city's economic development, generating 30% of all jobs in the urban area. With the support of its partners, Montecristi is committed to keeping this traditional craft alive. The "Toquilla Straw Hat Route" and "Cerro de hojas y Jaboncillo" programmes have paved the way to spaces for creation and training in folk art, housed within old buildings in the city. In collaboration with the national Technical Secretariat for Apprenticeships, 15% of craftspeople have been trained in new sustainable production methods and 40% in setting up viable businesses. The city invests in training and the construction of infrastructure for its craft industry which has acquired a strong reputation, thanks to the specific nature of the local intangible heritage, skills and weaving techniques. Cultural activities promoting this heritage to the public, such as "Ciudad Alfaro" and the International Toquilla Straw Weaving Festival, all represent opportunities to showcase the city's thriving creative sector, with concerts, photo exhibitions and documentary screenings.By joining the Network, Montecristi hopes to strengthen international cooperation around traditional craft methods and intellectual property. By working closely with other members of the Network, the city intends to celebrate the work of craftspeople, help them to protect their know-how and champion ethical and sustainable craftsmanship.      Added value:As a Creative City of Crafts and Folk Art, Montecristi is dedicated to: Increasing international cooperation with other Creative Cities to enhance local cultural sectors through the exchange of good practices and experience;Encouraging the introduction of sustainable methods in the crafts and folk art sector, by giving precedence to the sustainable use of natural resources and the implementation of environmentally-friendly production techniques;Supporting the empowerment of local craftspeople and entrepreneurs in the creative sector through lifelong learning and easier access to markets and finance; andBoosting cultural tourism by digitizing the city's cultural heritage and organizing craft festivals.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>About the Creative City: Kozhikhode is home to more than 70 publishing houses, which bring out 400 to 500 books a year, and 545 libraries, which account for tens of thousands of members. Literature and reading are deeply embedded in the daily lives of its inhabitants. The city is committed to promoting its writers: the P.A. Lalitha Award, the S.K. Pottekkatt Literature Award and the Mathrubhumi Literary Award are all ceremonies that highlight local talent and encourage creative innovation. An array of festivals is also organized all year round on literary themes. Among them, the 40-day Beypore Art, Craft, Tourism, and Literature Festival, which commemorates the birth of the famous local author Vaikom Muhammad Basheer, and the Kerala Literature Festival, one of the country's biggest literary festivals, shine the spotlight on artists and book professionals and promote the dissemination of literary works. Kozhikode is also undertaking several initiatives to extend the role of literature in urban development and to strengthen citizen involvement. SecondPen offers representatives of the medical profession the chance to develop their writing skills by supporting the publication of their short stories. The PuKaSa association, made up of local artists, organizes literary events open to all, including exhibitions, public readings and poetry recitals. These citizen-led projects encourage the population to get involved in literary life and help to ensure that as many people as possible have access to culture.The Creative City is also committed to promoting the inclusion of the most vulnerable through literature. Alongside other institutions, such as the Gender Museum and the Gender Library, which offer literary workshops to raise awareness of gender equality issues, and the Abussabah Library, which has a well-stocked section of books in Braille, Kozhikode endeavours to ensure that everyone can benefit from reading and literature. Added value:As a Creative City of Literature, Kozhikode is dedicated to: Working actively to promote inclusiveness, by ensuring that everyone has access to the city's cultural life and literary activities;Developing sustainable, socially responsible infrastructure to support the local literary industry;Safeguarding the city's literary heritage, notably the heritage of ethnic and cultural minorities; andStrengthening international and national cultural partnerships to encourage the development of the literature sector.</t>
+          <t xml:space="preserve"> Kozhikhode is home to more than 70 publishing houses, which bring out 400 to 500 books a year, and 545 libraries, which account for tens of thousands of members. Literature and reading are deeply embedded in the daily lives of its inhabitants. The city is committed to promoting its writers: the P.A. Lalitha Award, the S.K. Pottekkatt Literature Award and the Mathrubhumi Literary Award are all ceremonies that highlight local talent and encourage creative innovation. An array of festivals is also organized all year round on literary themes. Among them, the 40-day Beypore Art, Craft, Tourism, and Literature Festival, which commemorates the birth of the famous local author Vaikom Muhammad Basheer, and the Kerala Literature Festival, one of the country's biggest literary festivals, shine the spotlight on artists and book professionals and promote the dissemination of literary works. Kozhikode is also undertaking several initiatives to extend the role of literature in urban development and to strengthen citizen involvement. SecondPen offers representatives of the medical profession the chance to develop their writing skills by supporting the publication of their short stories. The PuKaSa association, made up of local artists, organizes literary events open to all, including exhibitions, public readings and poetry recitals. These citizen-led projects encourage the population to get involved in literary life and help to ensure that as many people as possible have access to culture.The Creative City is also committed to promoting the inclusion of the most vulnerable through literature. Alongside other institutions, such as the Gender Museum and the Gender Library, which offer literary workshops to raise awareness of gender equality issues, and the Abussabah Library, which has a well-stocked section of books in Braille, Kozhikode endeavours to ensure that everyone can benefit from reading and literature. Added value:As a Creative City of Literature, Kozhikode is dedicated to: Working actively to promote inclusiveness, by ensuring that everyone has access to the city's cultural life and literary activities;Developing sustainable, socially responsible infrastructure to support the local literary industry;Safeguarding the city's literary heritage, notably the heritage of ethnic and cultural minorities; andStrengthening international and national cultural partnerships to encourage the development of the literature sector.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>About the Creative City: In Kathmandu, the film industry is a key part of the local landscape, accounting for over 50,000 jobs and producing an average of 100 films locally every year. All the diverse groups in Kathmandu are involved in the thriving local film scene, from film professionals to representatives of religious institutions, who regularly help organize film shoots by providing access to sets, for example. Kathmandu supports globally renowned local film festivals that showcase its sector, such as the Kathmandu International Mountain Film Festival and the Nepal International Film Festival. These festivals promote films that adopt a fresh perspective on contemporary challenges, thereby helping to heighten viewers' awareness in relation to the images. Kathmandu is planning to organize an international film festival drawing on the Network and links with other Creative Cities of Film. A major event, that welcomes and brings together local and international producers, directors and film professionals, would facilitate co-production projects. In addition, Kathmandu would like to get more young people involved in the film industry. The city therefore intends to create a system of artist residencies dedicated to young filmmakers, to give them easier access to sets, equipment and production teams.  Added value:As a Creative City of Film, Kathmandu is dedicated to: Restoring and maintaining local infrastructure to provide spaces for film creation, and support the growth and sustainability of studios, post-production companies, film schools, film archives and museums;Organizing an international film festival and thematic conferences in collaboration with the organizing partners of pre-existing festivals; andEstablishing a film summit to facilitate cooperation with filmmakers from all over the world and give local directors and film professionals an opportunity to exchange good practices and form international partnerships.</t>
+          <t xml:space="preserve"> In Kathmandu, the film industry is a key part of the local landscape, accounting for over 50,000 jobs and producing an average of 100 films locally every year. All the diverse groups in Kathmandu are involved in the thriving local film scene, from film professionals to representatives of religious institutions, who regularly help organize film shoots by providing access to sets, for example. Kathmandu supports globally renowned local film festivals that showcase its sector, such as the Kathmandu International Mountain Film Festival and the Nepal International Film Festival. These festivals promote films that adopt a fresh perspective on contemporary challenges, thereby helping to heighten viewers' awareness in relation to the images. Kathmandu is planning to organize an international film festival drawing on the Network and links with other Creative Cities of Film. A major event, that welcomes and brings together local and international producers, directors and film professionals, would facilitate co-production projects. In addition, Kathmandu would like to get more young people involved in the film industry. The city therefore intends to create a system of artist residencies dedicated to young filmmakers, to give them easier access to sets, equipment and production teams.  Added value:As a Creative City of Film, Kathmandu is dedicated to: Restoring and maintaining local infrastructure to provide spaces for film creation, and support the growth and sustainability of studios, post-production companies, film schools, film archives and museums;Organizing an international film festival and thematic conferences in collaboration with the organizing partners of pre-existing festivals; andEstablishing a film summit to facilitate cooperation with filmmakers from all over the world and give local directors and film professionals an opportunity to exchange good practices and form international partnerships.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>About the Creative City: Renowned as the national cradle of independent rock, Ipoh is teeming with nationally and internationally acclaimed independent music producers, labels and bands. Such a thriving, specialist music scene is the result of the city's recent history and the way its inhabitants have embraced rock music to create "the sound of Ipoh". The city's music industry stands out for its strong commitment to creative freedom. Ipoh supports the independence of its designers and producers by guaranteeing the economic sustainability of the sector. Events, such as the Ipoh International Art Festival and the Ipoh Music Symposium, bring people together and make it easier to form new projects and obtain funding, while raising artists’ profile. In 2020, the city launched an action plan to embed marketing in its tourism sector. Thanks to this initiative, existing urban cultural policies have been harmonized and key local stakeholders brought together to support the local music sector and make it a defining hallmark of the city's cultural identity. Furthermore, in line with its vision for cross-sectoral cultural action, Ipoh is establishing synergies between music and other local creative sectors. Its action plan calls for greater promotion of the gastronomy, film and media arts sectors, based on the development and overall recognition of the city's music industry. With that in mind, Ipoh has supported the production of films inspired by the city's musical culture, as well as the Projek Panggung initiative, which enables the city's digital artists to showcase their talents over social media while promoting local musicians.  Added value:As a Creative City of Music, Ipoh is dedicated to: Ensuring that artists and creators can practise their art and their passion for music independently;Encouraging the repurposing of old buildings to breathe new life into urban areas;Diversifying and improving sources of income and funding for local creative sectors; andSharing good practices and exchanging knowledge and skills by taking part in the Network's activities.</t>
+          <t xml:space="preserve"> Renowned as the national cradle of independent rock, Ipoh is teeming with nationally and internationally acclaimed independent music producers, labels and bands. Such a thriving, specialist music scene is the result of the city's recent history and the way its inhabitants have embraced rock music to create "the sound of Ipoh". The city's music industry stands out for its strong commitment to creative freedom. Ipoh supports the independence of its designers and producers by guaranteeing the economic sustainability of the sector. Events, such as the Ipoh International Art Festival and the Ipoh Music Symposium, bring people together and make it easier to form new projects and obtain funding, while raising artists’ profile. In 2020, the city launched an action plan to embed marketing in its tourism sector. Thanks to this initiative, existing urban cultural policies have been harmonized and key local stakeholders brought together to support the local music sector and make it a defining hallmark of the city's cultural identity. Furthermore, in line with its vision for cross-sectoral cultural action, Ipoh is establishing synergies between music and other local creative sectors. Its action plan calls for greater promotion of the gastronomy, film and media arts sectors, based on the development and overall recognition of the city's music industry. With that in mind, Ipoh has supported the production of films inspired by the city's musical culture, as well as the Projek Panggung initiative, which enables the city's digital artists to showcase their talents over social media while promoting local musicians.  Added value:As a Creative City of Music, Ipoh is dedicated to: Ensuring that artists and creators can practise their art and their passion for music independently;Encouraging the repurposing of old buildings to breathe new life into urban areas;Diversifying and improving sources of income and funding for local creative sectors; andSharing good practices and exchanging knowledge and skills by taking part in the Network's activities.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>About the Creative City: Considered the “Capital of Culture” by King Carol I in 1866, Iaşi continues to honour this historic title by supporting its local creative and cultural sectors, notably its literary sector, which currently comprises 52 publishing houses and more than 105 printing works. Iaşi shines the spotlight on its local literary industry through various major initiatives. The International Festival of Literature and Translation, which has been welcoming hundreds of thousands of visitors for ten years now, provides an outstanding showcase for the authors, artists and book professionals taking part. Iaşi is supported by the National Museum of Romanian Literature. The Museum, as well as organizing numerous events throughout the year, supports the largest network of artist residencies reserved for authors and translators in the country. Mindful of the importance of quality education for all and of guaranteeing lifelong learning, Iaşi is committed to working alongside the many language and literature education providers in the area. These include the Romanian Institute of Philology, which funds and encourages studies of the country’s language, literature and dialects, and the Research Centre of the Faculty of Letters at Alexandru Ioan Cuza University, which has translated and published numerous books. Iaşi also encourages the use of literature as a meaningful teaching aid for children’s education, organizing the Sotron Festival dedicated to children’s books and setting up the Sotron artists’ residency for authors of children’s literature. The Creative City is committed to harnessing the transformative power of culture and creativity. The House of Museums and Pogor Museums, with the municipality’s active backing, organize readings, workshops and other events aimed at the most vulnerable groups. These initiatives strengthen the region’s social cohesion and demonstrate a commitment to implementing the 2030 Agenda and achieving the Sustainable Development Goals by 2030.  Added value:As a Creative City of Literature, Iaşi is dedicated to: Stimulating creativity and innovation, to offer new opportunities to artists and cultural professionals, particularly in the field of literature;Developing cultural provision for the most vulnerable and marginalized groups and fostering their inclusion in the creative sectors; andGuaranteeing the economic sustainability of the cultural sector to ensure its growth and development, so that the cultural and creative industries can fulfil their role in sustainable urban planning.</t>
+          <t xml:space="preserve"> Considered the “Capital of Culture” by King Carol I in 1866, Iaşi continues to honour this historic title by supporting its local creative and cultural sectors, notably its literary sector, which currently comprises 52 publishing houses and more than 105 printing works. Iaşi shines the spotlight on its local literary industry through various major initiatives. The International Festival of Literature and Translation, which has been welcoming hundreds of thousands of visitors for ten years now, provides an outstanding showcase for the authors, artists and book professionals taking part. Iaşi is supported by the National Museum of Romanian Literature. The Museum, as well as organizing numerous events throughout the year, supports the largest network of artist residencies reserved for authors and translators in the country. Mindful of the importance of quality education for all and of guaranteeing lifelong learning, Iaşi is committed to working alongside the many language and literature education providers in the area. These include the Romanian Institute of Philology, which funds and encourages studies of the country’s language, literature and dialects, and the Research Centre of the Faculty of Letters at Alexandru Ioan Cuza University, which has translated and published numerous books. Iaşi also encourages the use of literature as a meaningful teaching aid for children’s education, organizing the Sotron Festival dedicated to children’s books and setting up the Sotron artists’ residency for authors of children’s literature. The Creative City is committed to harnessing the transformative power of culture and creativity. The House of Museums and Pogor Museums, with the municipality’s active backing, organize readings, workshops and other events aimed at the most vulnerable groups. These initiatives strengthen the region’s social cohesion and demonstrate a commitment to implementing the 2030 Agenda and achieving the Sustainable Development Goals by 2030.  Added value:As a Creative City of Literature, Iaşi is dedicated to: Stimulating creativity and innovation, to offer new opportunities to artists and cultural professionals, particularly in the field of literature;Developing cultural provision for the most vulnerable and marginalized groups and fostering their inclusion in the creative sectors; andGuaranteeing the economic sustainability of the cultural sector to ensure its growth and development, so that the cultural and creative industries can fulfil their role in sustainable urban planning.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>About the Creative City: Iloilo has a long-standing gastronomic tradition rooted in its inhabitants’ way of life and in the local culture of the "fiesta" and its festive banquets. The city currently employs around 4,600 people in the gastronomy sector and comprises over 300 restaurants. Iloilo actively supports its food industry in the belief that it is instrumental for its urban development. Since 2021, the city organizes the "Timplada" event to showcase the creativity of its gastronomic sector and local cuisine. The event includes a number of educational activities focusing on the local culinary heritage. Similarly, an exhibition in partnership with the Iloilo Museum of Contemporary Art highlights contemporary artworks linked to local gastronomy.To ensure the vitality and economic development of the creative sector, every year since 2019, the city has organized a festival that invites micro-, small and medium-sized businesses in the gastronomy sector to showcase their products and meet potential investors. Iloilo is also working to safeguard its culinary heritage, by participating in the production of a recipe book entitled "Flavours of Iloilo", which brings together contemporary and traditional recipes unique to the city. For Iloilo, gastronomy is a vector for social cohesion and helps to strengthen urban resilience. During the COVID-19 pandemic, the city launched the "Kitchen Patrol" programme, distributing thousands of traditional meals to the underprivileged and socially isolated. Thanks to its strengths and resources in terms of gastronomy and creativity, Iloilo can develop appropriate responses to contemporary urban challenges and seize opportunities.   Added value:As a Creative City of Gastronomy, Iloilo City is dedicated to: Sharing its experiences and good practices in supporting the gastronomy sector and other creative fields with member cities of the Network;Working to repurpose disused urban spaces as cultural venues and strengthening the socio-economic inclusion of the most vulnerable; andStrengthening its efforts in terms of international scientific cooperation, urban regeneration, the fight against food waste and the development of sustainable urban agriculture.</t>
+          <t xml:space="preserve"> Iloilo has a long-standing gastronomic tradition rooted in its inhabitants’ way of life and in the local culture of the "fiesta" and its festive banquets. The city currently employs around 4,600 people in the gastronomy sector and comprises over 300 restaurants. Iloilo actively supports its food industry in the belief that it is instrumental for its urban development. Since 2021, the city organizes the "Timplada" event to showcase the creativity of its gastronomic sector and local cuisine. The event includes a number of educational activities focusing on the local culinary heritage. Similarly, an exhibition in partnership with the Iloilo Museum of Contemporary Art highlights contemporary artworks linked to local gastronomy.To ensure the vitality and economic development of the creative sector, every year since 2019, the city has organized a festival that invites micro-, small and medium-sized businesses in the gastronomy sector to showcase their products and meet potential investors. Iloilo is also working to safeguard its culinary heritage, by participating in the production of a recipe book entitled "Flavours of Iloilo", which brings together contemporary and traditional recipes unique to the city. For Iloilo, gastronomy is a vector for social cohesion and helps to strengthen urban resilience. During the COVID-19 pandemic, the city launched the "Kitchen Patrol" programme, distributing thousands of traditional meals to the underprivileged and socially isolated. Thanks to its strengths and resources in terms of gastronomy and creativity, Iloilo can develop appropriate responses to contemporary urban challenges and seize opportunities.   Added value:As a Creative City of Gastronomy, Iloilo City is dedicated to: Sharing its experiences and good practices in supporting the gastronomy sector and other creative fields with member cities of the Network;Working to repurpose disused urban spaces as cultural venues and strengthening the socio-economic inclusion of the most vulnerable; andStrengthening its efforts in terms of international scientific cooperation, urban regeneration, the fight against food waste and the development of sustainable urban agriculture.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>About the Creative City: Gwalior, one of the main cultural centres of the state of Madhya Pradesh, is the birthplace of the traditional Gharana Hindustani music forms of Dhrupad and Khayal. These styles are still very much alive, and the city is an essential meeting place and training ground for their performers, and those of Hindustani music in general. The Creative City is committed to showcasing this cultural wealth, guaranteeing greater visibility for its artists and ensuring the economic vitality of the music sector. Up to 4,000 to 5,000 people a day attend the Tansen Sangeet Samaroh Festival. Gwalior takes a cross-sectoral approach to culture to enrich the potential and expand the opportunities of its creative industries, as demonstrated by the city’s participation in the "Ek Bharat Shreshtha Bharat" initiative and its hosting of a festival associated with the programme in 2018. Gwalior is striving to make its music industry accessible to all and to highlight its transformative potential. The city has taken action to lower the cost of shows and to make them systematically free; it also awards study grants to promising underprivileged students. Furthermore, Gwalior is tapping into music as a means of empowering women through the "Dream Hatcher" initiative, which provides assistance to music projects and ventures led by women.  Added value:As a Creative City of Music, Gwalior is dedicated to: Revitalizing the city's historic districts through the music sector notably by involving local artists;Improving educational provision to encourage a taste for music, creativity and cultural entrepreneurship, particularly among young people; Ensuring greater visibility and recognition for artists and musicians by organizing international festivals and establishing collaborations with radio stations and online media platforms; andStrengthening collaboration within the Network, in particular by hosting an international conference on the role of the creative sectors in urban planning, recognizing creativity as a vector for sustainable development.</t>
+          <t xml:space="preserve"> Gwalior, one of the main cultural centres of the state of Madhya Pradesh, is the birthplace of the traditional Gharana Hindustani music forms of Dhrupad and Khayal. These styles are still very much alive, and the city is an essential meeting place and training ground for their performers, and those of Hindustani music in general. The Creative City is committed to showcasing this cultural wealth, guaranteeing greater visibility for its artists and ensuring the economic vitality of the music sector. Up to 4,000 to 5,000 people a day attend the Tansen Sangeet Samaroh Festival. Gwalior takes a cross-sectoral approach to culture to enrich the potential and expand the opportunities of its creative industries, as demonstrated by the city’s participation in the "Ek Bharat Shreshtha Bharat" initiative and its hosting of a festival associated with the programme in 2018. Gwalior is striving to make its music industry accessible to all and to highlight its transformative potential. The city has taken action to lower the cost of shows and to make them systematically free; it also awards study grants to promising underprivileged students. Furthermore, Gwalior is tapping into music as a means of empowering women through the "Dream Hatcher" initiative, which provides assistance to music projects and ventures led by women.  Added value:As a Creative City of Music, Gwalior is dedicated to: Revitalizing the city's historic districts through the music sector notably by involving local artists;Improving educational provision to encourage a taste for music, creativity and cultural entrepreneurship, particularly among young people; Ensuring greater visibility and recognition for artists and musicians by organizing international festivals and establishing collaborations with radio stations and online media platforms; andStrengthening collaboration within the Network, in particular by hosting an international conference on the role of the creative sectors in urban planning, recognizing creativity as a vector for sustainable development.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>About the Creative City: Hoi An has identified the preservation of traditional artistic techniques of its local crafts and folk art as a key objective. Originated in Hoi An and its surrounding areas, Bài chòi, a folk artform combining dance, theatre and song that has been on the UNESCO Intangible Heritage List since 2017. Following the city's 2018-2022 resolution entitled "Developing a cultural and ecological city model", Hoi An follows the "culture in the economy – economy in culture” principle, where culture and creativity form the cornerstone of the city's sustainable development. Under Hoi An's culture support policies, the protection and revitalization of the crafts and folk art sector are afforded special status. Thanks to the city's support for the "Hoi An Memories Island Culture Show", 500 local craftspeople and artists were hired and efforts have since continued to promote the region's folk art practices. Hoi An ensures the preservation of local crafts and folk art by guaranteeing access to the sector and to cultural activities for young people. The city is working to design training courses in traditional arts and crafts, with students working on the restoration of heritage features in the city. At the same time, the city supports over 40 specialized folk art classes for local high school students. Hoi An intends to facilitate and maintain inter-generational exchanges in order to guarantee the transmission and preservation of local knowledge and skills in the field of crafts and folk art.  Added value:As a Creative City of Crafts and Folk Art, Hoi An is dedicated to: Leveraging new technologies and social media to promote and enhance local cultural initiatives;Appointing delegates on an annual and biannual basis to participate in international forums and cooperation projects relating to heritage preservation, cultural development and crafts and folk art; and Establishing cross-sectoral and cultural development partnerships with Network member and non-member cities at national level.</t>
+          <t xml:space="preserve"> Hoi An has identified the preservation of traditional artistic techniques of its local crafts and folk art as a key objective. Originated in Hoi An and its surrounding areas, Bài chòi, a folk artform combining dance, theatre and song that has been on the UNESCO Intangible Heritage List since 2017. Following the city's 2018-2022 resolution entitled "Developing a cultural and ecological city model", Hoi An follows the "culture in the economy – economy in culture” principle, where culture and creativity form the cornerstone of the city's sustainable development. Under Hoi An's culture support policies, the protection and revitalization of the crafts and folk art sector are afforded special status. Thanks to the city's support for the "Hoi An Memories Island Culture Show", 500 local craftspeople and artists were hired and efforts have since continued to promote the region's folk art practices. Hoi An ensures the preservation of local crafts and folk art by guaranteeing access to the sector and to cultural activities for young people. The city is working to design training courses in traditional arts and crafts, with students working on the restoration of heritage features in the city. At the same time, the city supports over 40 specialized folk art classes for local high school students. Hoi An intends to facilitate and maintain inter-generational exchanges in order to guarantee the transmission and preservation of local knowledge and skills in the field of crafts and folk art.  Added value:As a Creative City of Crafts and Folk Art, Hoi An is dedicated to: Leveraging new technologies and social media to promote and enhance local cultural initiatives;Appointing delegates on an annual and biannual basis to participate in international forums and cooperation projects relating to heritage preservation, cultural development and crafts and folk art; and Establishing cross-sectoral and cultural development partnerships with Network member and non-member cities at national level.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>About the Creative City: Umngeni Howick lies along the Midlands Meander tourist route dedicated to crafts and folk art. The city is home to over 170 craftspeople working in a wide variety of fields, including ceramics and sculpture. The city supports its artists, as demonstrated by its backing of the Zulu Mphopomeni Tourism Enterprise programme. Entirely community-led, the programme ensures the economic viability of craftspeople and helps to safeguard and revitalize Zulu culture. The Creative City has strengthened its partnership with the Midlands Meander association to support the development of its craft industry. As part of this collaboration, 50 craftspeople have been trained and plans are underway to develop an online platform to support craftspeople in selling their wares. Umgeni Howick's designation as a Creative City is part of a drive to develop its efforts for local craftspeople. The city plans to create an Indaba craft festival, inspired by the Indaba design festival in Cape Town, which is also a UNESCO Creative City. The latter is clearly aimed at raising the profile of local craftspeople and at encouraging intercultural dialogue, by inviting craftspeople from other Creative Cities. Umgeni Howick would also like to set up a second festival, this time focusing on the craftspeople upholding Zulu culture. In doing so, the city is aligning its policy with the work undertaken by UNESCO to support indigenous people.   Added value:As a Creative City of Crafts and Folk Art, Umgeni Howick is dedicated to: Strengthening international cooperation between cities that have identified culture and creativity as key factors in sustainable development and social cohesion;Increasing its support for the creation, production and distribution of cultural goods in the local area, particularly crafted goods; andFighting poverty and socio-economic inequality by facilitating access to crafts and folk art for all.</t>
+          <t xml:space="preserve"> Umngeni Howick lies along the Midlands Meander tourist route dedicated to crafts and folk art. The city is home to over 170 craftspeople working in a wide variety of fields, including ceramics and sculpture. The city supports its artists, as demonstrated by its backing of the Zulu Mphopomeni Tourism Enterprise programme. Entirely community-led, the programme ensures the economic viability of craftspeople and helps to safeguard and revitalize Zulu culture. The Creative City has strengthened its partnership with the Midlands Meander association to support the development of its craft industry. As part of this collaboration, 50 craftspeople have been trained and plans are underway to develop an online platform to support craftspeople in selling their wares. Umgeni Howick's designation as a Creative City is part of a drive to develop its efforts for local craftspeople. The city plans to create an Indaba craft festival, inspired by the Indaba design festival in Cape Town, which is also a UNESCO Creative City. The latter is clearly aimed at raising the profile of local craftspeople and at encouraging intercultural dialogue, by inviting craftspeople from other Creative Cities. Umgeni Howick would also like to set up a second festival, this time focusing on the craftspeople upholding Zulu culture. In doing so, the city is aligning its policy with the work undertaken by UNESCO to support indigenous people.   Added value:As a Creative City of Crafts and Folk Art, Umgeni Howick is dedicated to: Strengthening international cooperation between cities that have identified culture and creativity as key factors in sustainable development and social cohesion;Increasing its support for the creation, production and distribution of cultural goods in the local area, particularly crafted goods; andFighting poverty and socio-economic inequality by facilitating access to crafts and folk art for all.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>About the Creative City: The Creative City of Fribourg is located in a region that is internationally renowned for its agricultural production, particularly the production, marketing and export of its Gruyère cheese. The city also cultivates a thriving scene for fine dining and traditional fare alike, with more than 180 restaurants for 40,000 inhabitants. Chosen as Switzerland's City of Taste 2023, the Creative City organizes and supports nearly 200 events throughout the year, including Melting Popote, a multicultural pop-up restaurant with a mobile kitchen that welcomes residents for a week to prepare dishes from their country of origin, thereby promoting intercultural dialogue and the diversity of minority cultural expressions through gastronomy.At the local level, gastronomy helps to strengthen community ties and preserve the local intangible heritage. St Nicholas' Day and the harvest festival, Bénichon, with the distribution of biscômes (gingerbread with honey), and the organization of traditional fondues for the community, are examples of interactive events celebrating the city's culinary heritage and open to all residents. Thanks to its strong agri-food ecosystem and the development of its Bluefactory innovation district, built on the historic site of the Cardinal brewery, Fribourg is an incubator for innovation, not only in the agri-food sector, but also in social and cultural terms. For the city, which is home to 139 cultural facilities and 318 businesses working in the food sector, gastronomy is a vector of culture and meanwhile art and creativity are drivers of gastronomic discovery, social diversity and public health. Added value:As a Creative City of Gastronomy, Fribourg is dedicated to: Developing international exchanges on innovation and research in the agri-food sector, with a view to enhancing knowledge and practices related to food and the circular economy; Developing international collaborations through events across the Network's creative fields, including gastronomy; Sharing good practices in facilitating economic and social inclusion, such as the integration of people looking to (re)join the job market in the catering sector; andPooling good practices for sustainable school canteens and raising awareness of healthy, sustainable food choices among the younger generation.</t>
+          <t xml:space="preserve"> The Creative City of Fribourg is located in a region that is internationally renowned for its agricultural production, particularly the production, marketing and export of its Gruyère cheese. The city also cultivates a thriving scene for fine dining and traditional fare alike, with more than 180 restaurants for 40,000 inhabitants. Chosen as Switzerland's City of Taste 2023, the Creative City organizes and supports nearly 200 events throughout the year, including Melting Popote, a multicultural pop-up restaurant with a mobile kitchen that welcomes residents for a week to prepare dishes from their country of origin, thereby promoting intercultural dialogue and the diversity of minority cultural expressions through gastronomy.At the local level, gastronomy helps to strengthen community ties and preserve the local intangible heritage. St Nicholas' Day and the harvest festival, Bénichon, with the distribution of biscômes (gingerbread with honey), and the organization of traditional fondues for the community, are examples of interactive events celebrating the city's culinary heritage and open to all residents. Thanks to its strong agri-food ecosystem and the development of its Bluefactory innovation district, built on the historic site of the Cardinal brewery, Fribourg is an incubator for innovation, not only in the agri-food sector, but also in social and cultural terms. For the city, which is home to 139 cultural facilities and 318 businesses working in the food sector, gastronomy is a vector of culture and meanwhile art and creativity are drivers of gastronomic discovery, social diversity and public health. Added value:As a Creative City of Gastronomy, Fribourg is dedicated to: Developing international exchanges on innovation and research in the agri-food sector, with a view to enhancing knowledge and practices related to food and the circular economy; Developing international collaborations through events across the Network's creative fields, including gastronomy; Sharing good practices in facilitating economic and social inclusion, such as the integration of people looking to (re)join the job market in the catering sector; andPooling good practices for sustainable school canteens and raising awareness of healthy, sustainable food choices among the younger generation.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>About the Creative City: Da Lat's economic growth is driven by its creative sector, which comprises 278 companies, employs over 5,000 people and accounts for 3.7% of the city's GDP. Da Lat is actively working to develop its music industry by facilitating investment to fund the necessary infrastructure and the organization of large-scale events. For example, the city is closely involved in the construction of the Da Lat Opera House and the organization of the Hoa Sen SoundFest, which welcomed in 2023 the Bucharest Symphony Orchestra and other artists from around the world, as well as over 15,000 festival goers. Within the city, music is a common language that strengthens social cohesion between the diversity of local communities. Indeed, Da Lat is leveraging music to promote sustainable urban development and intercultural dialogue. The city was behind the creation of the Lang Biang Gong Space, a platform for showcasing and safeguarding the traditional music of Da Lat's minorities. Through music, the Creative City is also supporting the inclusion of vulnerable people by working with social partners to organize events such as the Da Lat Women's Singing Festival, which is open only to women, particularly from the city's minorities, and the "Sharing One Heart" concert for people with disabilities.  Added value:As a Creative City of Music, Da Lat is dedicated to:Taking action to preserve and promote the musical heritage and traditions of all its inhabitants, particularly the minorities involved in the Lang Biang Gong Space project; Harnessing music and, more generally culture and creativity, for sustainable development and for establishing synergies; andStrengthening cooperation between international and local partners, in particular with other Creative Cities, by organizing a biannual partners' forum.</t>
+          <t xml:space="preserve"> Da Lat's economic growth is driven by its creative sector, which comprises 278 companies, employs over 5,000 people and accounts for 3.7% of the city's GDP. Da Lat is actively working to develop its music industry by facilitating investment to fund the necessary infrastructure and the organization of large-scale events. For example, the city is closely involved in the construction of the Da Lat Opera House and the organization of the Hoa Sen SoundFest, which welcomed in 2023 the Bucharest Symphony Orchestra and other artists from around the world, as well as over 15,000 festival goers. Within the city, music is a common language that strengthens social cohesion between the diversity of local communities. Indeed, Da Lat is leveraging music to promote sustainable urban development and intercultural dialogue. The city was behind the creation of the Lang Biang Gong Space, a platform for showcasing and safeguarding the traditional music of Da Lat's minorities. Through music, the Creative City is also supporting the inclusion of vulnerable people by working with social partners to organize events such as the Da Lat Women's Singing Festival, which is open only to women, particularly from the city's minorities, and the "Sharing One Heart" concert for people with disabilities.  Added value:As a Creative City of Music, Da Lat is dedicated to:Taking action to preserve and promote the musical heritage and traditions of all its inhabitants, particularly the minorities involved in the Lang Biang Gong Space project; Harnessing music and, more generally culture and creativity, for sustainable development and for establishing synergies; andStrengthening cooperation between international and local partners, in particular with other Creative Cities, by organizing a biannual partners' forum.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>About the Creative City: Founded in 1605, Oulu embarked on a journey as an innovation centre, evolving into a dynamic hub of modern technology and diverse competence. In the world of media arts, Oulu collaborates with local partners, including independent art organizations, the University of Oulu, and Oulu University of Applied Sciences. Active participation in international networks such as Culture Next, Eurocities Culture Forum, Arctic Mayors’ Forum, and International Councils of Museums (ICOM) underscores Oulu's global engagement.Oulu’s resilience as an Arctic city lies in its commitment to local and global renewal. The Cultural Strategy of Oulu 2030 envisions culture as a pivotal source of renewal, bridging the city’s hi-tech past to its present Art&amp;Tech competence, with media arts driving future innovation.In 2022, the TechArt Forum showcased the intersection of Art&amp;Tech, featuring AI-generated art, haptics, digital twins, and avant-garde stage design. Events like the Polar Bear Pitching startup event and Northern Glow business forum exemplify Oulu’s commitment to Art&amp;Tech innovation. The city actively collaborates with local partners, educational institutes, and creative clusters, fostering a more creative, inclusive, and attractive Oulu, and leveraging culture and creativity for sustainable urban development.  Added Value: As a Creative City of Media Arts, Okayama City is dedicated: To contribute to a future where media arts and creativity serve as methods of learning;To promote media arts as a driver for sustainable urban development;To encourage cross-sector collaboration with other Creative Cities, fostering knowledge exchange; and To expand and develop current practices of media arts, ensuring inclusivity for young people and emerging artists.</t>
+          <t xml:space="preserve"> Founded in 1605, Oulu embarked on a journey as an innovation centre, evolving into a dynamic hub of modern technology and diverse competence. In the world of media arts, Oulu collaborates with local partners, including independent art organizations, the University of Oulu, and Oulu University of Applied Sciences. Active participation in international networks such as Culture Next, Eurocities Culture Forum, Arctic Mayors’ Forum, and International Councils of Museums (ICOM) underscores Oulu's global engagement.Oulu’s resilience as an Arctic city lies in its commitment to local and global renewal. The Cultural Strategy of Oulu 2030 envisions culture as a pivotal source of renewal, bridging the city’s hi-tech past to its present Art&amp;Tech competence, with media arts driving future innovation.In 2022, the TechArt Forum showcased the intersection of Art&amp;Tech, featuring AI-generated art, haptics, digital twins, and avant-garde stage design. Events like the Polar Bear Pitching startup event and Northern Glow business forum exemplify Oulu’s commitment to Art&amp;Tech innovation. The city actively collaborates with local partners, educational institutes, and creative clusters, fostering a more creative, inclusive, and attractive Oulu, and leveraging culture and creativity for sustainable urban development.  Added Value: As a Creative City of Media Arts, Okayama City is dedicated: To contribute to a future where media arts and creativity serve as methods of learning;To promote media arts as a driver for sustainable urban development;To encourage cross-sector collaboration with other Creative Cities, fostering knowledge exchange; and To expand and develop current practices of media arts, ensuring inclusivity for young people and emerging artists.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>About the Creative City: Vicente Lopez is a city rich in culture and a thriving hub for the film industry. The city proudly features a collection of historical monuments dating back to the early 1900s. Notable landmarks include “Cine York”, celebrated for its carefully curated art film programme, “Centro Cultural Munro”, and “Quinta Trabucco”, a park that hosts various courses, exhibitions, recitals, and open-air screenings. The Creative City holds great importance in the history of the local film industry, particularly in the evolution of national sound film. It was the home of the first modern film studios in Latin America, with the establishment of Lumiton Studios in 1931. Today, the studio stands as a national monument, museum, and a driving force in the contemporary audiovisual industry. The Public Lumiton Film Archive safeguards a valuable collection of historic films, photos, and cameras, offering a glimpse into the city’s cinematic history and artistic achievements. The “Vecine Vecine” programme continues the tradition of film screenings, providing an inclusive and diverse cultural experience. In addition, the local “Usina” streaming platform broadcasts original content, encompassing theatre plays, music shows, and film programmes, reaching both national and international audiences. Vicente Lopez also takes pride in being home to two renowned educational institutions specialized in the film industry.  Added Value: As a Creative City of Film, Vicente Lopez is dedicated: To preserve and promote the city’s film heritage;To make film collections more accessible online with the goal of cooperating with international film archives;To establish partnerships and collaborations with other UCCN members, to foster cultural exchange, promote diversity, and strengthen ties between regions enhancing intercultural dialogue and cooperation;To commit to urban sustainable development through the inclusion and promotion of local economies, as well as contributing to the economic growth of the creative sector; andTo provide platforms for emerging artists as well as to promote the city as a hub of creativity and innovation.</t>
+          <t xml:space="preserve"> Vicente Lopez is a city rich in culture and a thriving hub for the film industry. The city proudly features a collection of historical monuments dating back to the early 1900s. Notable landmarks include “Cine York”, celebrated for its carefully curated art film programme, “Centro Cultural Munro”, and “Quinta Trabucco”, a park that hosts various courses, exhibitions, recitals, and open-air screenings. The Creative City holds great importance in the history of the local film industry, particularly in the evolution of national sound film. It was the home of the first modern film studios in Latin America, with the establishment of Lumiton Studios in 1931. Today, the studio stands as a national monument, museum, and a driving force in the contemporary audiovisual industry. The Public Lumiton Film Archive safeguards a valuable collection of historic films, photos, and cameras, offering a glimpse into the city’s cinematic history and artistic achievements. The “Vecine Vecine” programme continues the tradition of film screenings, providing an inclusive and diverse cultural experience. In addition, the local “Usina” streaming platform broadcasts original content, encompassing theatre plays, music shows, and film programmes, reaching both national and international audiences. Vicente Lopez also takes pride in being home to two renowned educational institutions specialized in the film industry.  Added Value: As a Creative City of Film, Vicente Lopez is dedicated: To preserve and promote the city’s film heritage;To make film collections more accessible online with the goal of cooperating with international film archives;To establish partnerships and collaborations with other UCCN members, to foster cultural exchange, promote diversity, and strengthen ties between regions enhancing intercultural dialogue and cooperation;To commit to urban sustainable development through the inclusion and promotion of local economies, as well as contributing to the economic growth of the creative sector; andTo provide platforms for emerging artists as well as to promote the city as a hub of creativity and innovation.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>About the Creative City: Okayama City, situated along the Seto Inland Sea with its serene waters, picturesque islands, and contemporary art, is embraced by the natural beauty of rice fields, wheat, peach, and grape orchards, creating an inspiring landscape that has captivated poets and writers since the 8th century.The city prides itself on its literary heritage, particularly in children’s literature, deeply rooted in history. Leveraging these resources, Okayama City strives to activate the region through innovative public-private partnerships spanning various generations, aiming to inspire and benefit other UCCN member cities. It recognizes literature as a crucial tool for addressing global challenges such as globalization, evolving values, and an aging population. By promoting literature, the city seeks to create an attractive and creative society. In its pursuit of globalization, the city aims to facilitate connections between citizens and literary works from diverse countries, promoting a deeper understanding of history and culture. Initiatives targeting young people aim to provide them with new frameworks for thinking in the face of rapid societal changes, including the arrival of artificial intelligence.Tackling the challenge of diversification, Okayama City creates opportunities for various generations to engage with literature, utilizing libraries and community centres as hubs for sharing diverse values, to foster an understanding and participation from all ages, promoting inclusivity. The city has implemented numerous initiatives, including awards for children’s stories and traditional Japanese literary creations to foster civic pride and interest in literature. Events such as “The Okayama Literature Festival” and “The Citizens’ Fairy Tale Award” further showcase the city’s commitment to literary engagement.  Added Value: As a Creative City of Literature, Okayama City is dedicated: To strengthen the creation and dissemination of cultural activities, exchanging knowledge and experiences with other Creative Cities;To foster an inclusive society, ensuring literature is accessible to all individuals; andTo implement initiatives that promote cross-cultural creative activities through global exchange among artists.</t>
+          <t xml:space="preserve"> Okayama City, situated along the Seto Inland Sea with its serene waters, picturesque islands, and contemporary art, is embraced by the natural beauty of rice fields, wheat, peach, and grape orchards, creating an inspiring landscape that has captivated poets and writers since the 8th century.The city prides itself on its literary heritage, particularly in children’s literature, deeply rooted in history. Leveraging these resources, Okayama City strives to activate the region through innovative public-private partnerships spanning various generations, aiming to inspire and benefit other UCCN member cities. It recognizes literature as a crucial tool for addressing global challenges such as globalization, evolving values, and an aging population. By promoting literature, the city seeks to create an attractive and creative society. In its pursuit of globalization, the city aims to facilitate connections between citizens and literary works from diverse countries, promoting a deeper understanding of history and culture. Initiatives targeting young people aim to provide them with new frameworks for thinking in the face of rapid societal changes, including the arrival of artificial intelligence.Tackling the challenge of diversification, Okayama City creates opportunities for various generations to engage with literature, utilizing libraries and community centres as hubs for sharing diverse values, to foster an understanding and participation from all ages, promoting inclusivity. The city has implemented numerous initiatives, including awards for children’s stories and traditional Japanese literary creations to foster civic pride and interest in literature. Events such as “The Okayama Literature Festival” and “The Citizens’ Fairy Tale Award” further showcase the city’s commitment to literary engagement.  Added Value: As a Creative City of Literature, Okayama City is dedicated: To strengthen the creation and dissemination of cultural activities, exchanging knowledge and experiences with other Creative Cities;To foster an inclusive society, ensuring literature is accessible to all individuals; andTo implement initiatives that promote cross-cultural creative activities through global exchange among artists.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>About the Creative City: Hobart is home to the country's oldest independent bookshop. It is the birthplace of a number of world-renowned and award-winning writers, including Richard Flanagan, Amanda Lohrey and Heather Rose. Hobart celebrates this rich literary heritage every year during the Tasmanian Writers Festival and Tasmanian Reading Week. To safeguard and renew its local talent, the municipality funds literary initiatives granting loans at preferential rates. Funded projects include the “Small Press Zine” festival, the “Oasis Women Poets” anthology and the “Poetry in Motion” project, all of which help to make reading and writing more accessible throughout the city. The special place occupied by literature in city policy can be explained through its instrumental role in raising the profile of the Aboriginal population and in building a shared memory. Support for programmes such as "Crowther Reinterpreted" and "Takara Utas" illustrates the Creative City's desire to strengthen social cohesion through its thriving literary scene.By joining the UCCN, Hobart hopes to bolster international cooperation and facilitate intercultural dialogue through literature. In particular, for International Literacy Day 2024, the innovative "Follow the Sunset" plans to organize a 24-hour live broadcast, during which an author from one Creative City per time zone will tell a bedtime story.  Added value:As a Creative City of Literature, Hobart is dedicated to: Exploring and sharing innovations in terms of creativity and culture to promote literacy among young people;Building a network of designers who can use their creativity to help combat global warming and to build a sustainable urban future;Working to develop partnerships in the Asia Pacific region and with Creative Cities whose national governments are signatories to the international Antarctic agreements; andWorking on behalf of indigenous artists through the Network, particularly with a view to safeguarding indigenous languages.</t>
+          <t xml:space="preserve"> Hobart is home to the country's oldest independent bookshop. It is the birthplace of a number of world-renowned and award-winning writers, including Richard Flanagan, Amanda Lohrey and Heather Rose. Hobart celebrates this rich literary heritage every year during the Tasmanian Writers Festival and Tasmanian Reading Week. To safeguard and renew its local talent, the municipality funds literary initiatives granting loans at preferential rates. Funded projects include the “Small Press Zine” festival, the “Oasis Women Poets” anthology and the “Poetry in Motion” project, all of which help to make reading and writing more accessible throughout the city. The special place occupied by literature in city policy can be explained through its instrumental role in raising the profile of the Aboriginal population and in building a shared memory. Support for programmes such as "Crowther Reinterpreted" and "Takara Utas" illustrates the Creative City's desire to strengthen social cohesion through its thriving literary scene.By joining the UCCN, Hobart hopes to bolster international cooperation and facilitate intercultural dialogue through literature. In particular, for International Literacy Day 2024, the innovative "Follow the Sunset" plans to organize a 24-hour live broadcast, during which an author from one Creative City per time zone will tell a bedtime story.  Added value:As a Creative City of Literature, Hobart is dedicated to: Exploring and sharing innovations in terms of creativity and culture to promote literacy among young people;Building a network of designers who can use their creativity to help combat global warming and to build a sustainable urban future;Working to develop partnerships in the Asia Pacific region and with Creative Cities whose national governments are signatories to the international Antarctic agreements; andWorking on behalf of indigenous artists through the Network, particularly with a view to safeguarding indigenous languages.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>About the Creative City: Ulaanbaatar recognizes the significance of traditional crafts, particularly national clothing and felt crafts, along with folk dance. These cultural assets align with government policies and the city’s economic focus, rooted in the country’s rich heritage with designs, techniques, and traditions passed down through generations.In the city’s Ger districts, where 50% of households reside, artisans migrating from rural regions contribute significantly to traditional crafts. Around 60% of these households generate income from traditional crafts, especially in national clothing production and felting. According to the city, in 2022, these crafts generated a sales revenue of 69,275,362 USD. The city focuses on prioritizing these crafts by fostering collaboration, developing clusters, and promoting business-oriented approaches to increase employment in residential areas.Ulaanbaatar envisions strengthening its status as a “City of Nomads” by developing chosen traditional crafts. The city’s cultural asset production emphasizes eco-friendliness, utilizing materials such as animal wool, natural fabrics, and silks. These crafts contribute significantly to goals related to economic growth, sustainable cities and communities, and partnerships. Moreover, they hold the potential to transform Ulaanbaatar into an inclusive city, providing a sense of belonging and connectivity all its citizens worldwide. Embracing the “City of Nomads” idea, the city actively cultivates creative cultural production, drawing inspiration from this distinctive characteristic. Traditional crafts are considered a vital element of nomadic civilization, still utilized and preserved in contemporary lifestyles.  Added Value: As a Creative City of Crafts and Folk Art, Ulaanbaatar is dedicated: To implement policies for the development of the city whilst preserving and promoting its cultural tangible and intangible heritage;To support creative production of crafts and folk art through policies, formalizing the informal sector, and boosting the fields’ economic impact;To create cultural spaces and optimize their usage for marginalized groups and the public, fostering an environment for artistic expression and cultural activities;To strengthen regional cultural exchange through collaborations with other Creative Cities to promote the sharing and dissemination of cultural products; and To become a dynamic hub for crafts and folk art, enhancing its cultural landscape and driving economy and social development.</t>
+          <t xml:space="preserve"> Ulaanbaatar recognizes the significance of traditional crafts, particularly national clothing and felt crafts, along with folk dance. These cultural assets align with government policies and the city’s economic focus, rooted in the country’s rich heritage with designs, techniques, and traditions passed down through generations.In the city’s Ger districts, where 50% of households reside, artisans migrating from rural regions contribute significantly to traditional crafts. Around 60% of these households generate income from traditional crafts, especially in national clothing production and felting. According to the city, in 2022, these crafts generated a sales revenue of 69,275,362 USD. The city focuses on prioritizing these crafts by fostering collaboration, developing clusters, and promoting business-oriented approaches to increase employment in residential areas.Ulaanbaatar envisions strengthening its status as a “City of Nomads” by developing chosen traditional crafts. The city’s cultural asset production emphasizes eco-friendliness, utilizing materials such as animal wool, natural fabrics, and silks. These crafts contribute significantly to goals related to economic growth, sustainable cities and communities, and partnerships. Moreover, they hold the potential to transform Ulaanbaatar into an inclusive city, providing a sense of belonging and connectivity all its citizens worldwide. Embracing the “City of Nomads” idea, the city actively cultivates creative cultural production, drawing inspiration from this distinctive characteristic. Traditional crafts are considered a vital element of nomadic civilization, still utilized and preserved in contemporary lifestyles.  Added Value: As a Creative City of Crafts and Folk Art, Ulaanbaatar is dedicated: To implement policies for the development of the city whilst preserving and promoting its cultural tangible and intangible heritage;To support creative production of crafts and folk art through policies, formalizing the informal sector, and boosting the fields’ economic impact;To create cultural spaces and optimize their usage for marginalized groups and the public, fostering an environment for artistic expression and cultural activities;To strengthen regional cultural exchange through collaborations with other Creative Cities to promote the sharing and dissemination of cultural products; and To become a dynamic hub for crafts and folk art, enhancing its cultural landscape and driving economy and social development.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>About the Creative City: Tukums, historically recognized as a town of writers, artisans, and painters, places literature at the forefront of shaping its city identity and cultural space. Despite being a small town, Tukums holds major importance in the development of local culture. The integration of literature and nature is evident in the urban environment, parks, and even forests.The city has a renowned literary heritage, being the birthplace of folklorist Krišjānis Barons, whose Cabinet of Folksongs is included in the international register of the UNESCO Memory of the World Programme. Literature holds a prominent place in education at all levels, with the Tukums Rainis State Gymnasium serving as a potential world-class model for teaching literature. The rich literary environment has attracted more writers to live and work in Tukums compared to other regions in the country.The city boasts a vibrant cultural life, characterized by the fusion of different arts. Key cultural events include the Tukums Rose Festival, the Chief Conductors’ Festival, Spotlight on Africa, Prose Fermentation, and the international poetry campaign “Heart on the Platform”. Distinctive cultural sites such as Tukku Magi, the “Werewolves’ Trail” in the suburban forest, and “Ziedonis Garden in Mālkalns” contribute to Tukums’ cultural richness.  Added Value: As a Creative City of Literature, Tukums is dedicated: To integrate literature into education at all levels, including various art workshops for people of all ages;To preserve and develop, through culture and creativity, the city’s literary identity and heritage; and To collaborate with other Creative Cities to facilitate cultural and knowledge exchange.</t>
+          <t xml:space="preserve"> Tukums, historically recognized as a town of writers, artisans, and painters, places literature at the forefront of shaping its city identity and cultural space. Despite being a small town, Tukums holds major importance in the development of local culture. The integration of literature and nature is evident in the urban environment, parks, and even forests.The city has a renowned literary heritage, being the birthplace of folklorist Krišjānis Barons, whose Cabinet of Folksongs is included in the international register of the UNESCO Memory of the World Programme. Literature holds a prominent place in education at all levels, with the Tukums Rainis State Gymnasium serving as a potential world-class model for teaching literature. The rich literary environment has attracted more writers to live and work in Tukums compared to other regions in the country.The city boasts a vibrant cultural life, characterized by the fusion of different arts. Key cultural events include the Tukums Rose Festival, the Chief Conductors’ Festival, Spotlight on Africa, Prose Fermentation, and the international poetry campaign “Heart on the Platform”. Distinctive cultural sites such as Tukku Magi, the “Werewolves’ Trail” in the suburban forest, and “Ziedonis Garden in Mālkalns” contribute to Tukums’ cultural richness.  Added Value: As a Creative City of Literature, Tukums is dedicated: To integrate literature into education at all levels, including various art workshops for people of all ages;To preserve and develop, through culture and creativity, the city’s literary identity and heritage; and To collaborate with other Creative Cities to facilitate cultural and knowledge exchange.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>About the Creative City: In Taif, literature and culture form the cornerstone of opportunities and challenges, as the city leverages its rich cultural heritage to create a unique style that attracts tourists, generates revenue, and increases employment. Events like the Rose Caravan contribute to the preservation and education about Taif’s culture, aligning with the SDG’s by using literature to promote education and cultural heritage while fostering community inclusion.Taif, stands as a city with significant cultural assets and an expanding creative industry. Historically, Taif pioneered literature in the Arabian Peninsula by establishing the first library, the Abdullah bin Abbas library, serving as a foundation for scholars and researchers. This legacy continued with another library established in 1943.The Literature, Publishing, and Translation Commission (LPTC) plays a pivotal role in advancing Taif’s literary sector. Collaborating with public and private agencies, LPTC is initiating plans to establish literary salons and clubs, providing vital support to local writers. The city envisions a future rooted in its literary past and is committed to nurturing professional literary skills at all levels, showcasing the enduring power of literature, and integrating its rich past into a vibrant future.Literature is supported by numerous libraries, cultural centres, events, book fairs, and writing workshops. Souq Okaz, dating back to 501 A.D., has historically been a hub for trade, literary exchange, and intellectual discussions. The Souq Okaz Festival has evolved into a major cultural, commercial, and tourism event, attracting thousands of visitors annually, featuring poetry competitions, arts performances, crafts, and showcasing Taif’s heritage, culture, and traditions. Added Value: As a Creative City of Literature, Taif is dedicated: To collaborate closely with stakeholders to develop creative hubs, fostering innovation and expanding opportunities for cultural sector professionals;To implement policies, including the printing and publishing policy, content clearance policy, and tax exemption procedures, to strengthen the creation, production, distribution, and dissemination of cultural activities, goods, and services;To support creative industry programmes, integrating culture and creativity into local development strategies; and To foster international collaborations, sharing literary traditions with institutions across bordering countries.</t>
+          <t xml:space="preserve"> In Taif, literature and culture form the cornerstone of opportunities and challenges, as the city leverages its rich cultural heritage to create a unique style that attracts tourists, generates revenue, and increases employment. Events like the Rose Caravan contribute to the preservation and education about Taif’s culture, aligning with the SDG’s by using literature to promote education and cultural heritage while fostering community inclusion.Taif, stands as a city with significant cultural assets and an expanding creative industry. Historically, Taif pioneered literature in the Arabian Peninsula by establishing the first library, the Abdullah bin Abbas library, serving as a foundation for scholars and researchers. This legacy continued with another library established in 1943.The Literature, Publishing, and Translation Commission (LPTC) plays a pivotal role in advancing Taif’s literary sector. Collaborating with public and private agencies, LPTC is initiating plans to establish literary salons and clubs, providing vital support to local writers. The city envisions a future rooted in its literary past and is committed to nurturing professional literary skills at all levels, showcasing the enduring power of literature, and integrating its rich past into a vibrant future.Literature is supported by numerous libraries, cultural centres, events, book fairs, and writing workshops. Souq Okaz, dating back to 501 A.D., has historically been a hub for trade, literary exchange, and intellectual discussions. The Souq Okaz Festival has evolved into a major cultural, commercial, and tourism event, attracting thousands of visitors annually, featuring poetry competitions, arts performances, crafts, and showcasing Taif’s heritage, culture, and traditions. Added Value: As a Creative City of Literature, Taif is dedicated: To collaborate closely with stakeholders to develop creative hubs, fostering innovation and expanding opportunities for cultural sector professionals;To implement policies, including the printing and publishing policy, content clearance policy, and tax exemption procedures, to strengthen the creation, production, distribution, and dissemination of cultural activities, goods, and services;To support creative industry programmes, integrating culture and creativity into local development strategies; and To foster international collaborations, sharing literary traditions with institutions across bordering countries.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>About the Creative City: Surakarta harnesses the rich potential within its cultural assets and creative economy, characterized by its 387 ateliers involving 1,081 artists. These ateliers cover a range of artistic disciplines, including traditional musicians, dancers, singers, theatre actors, painters, and sculptors. The city's commitment to nurturing artistic talent is evident in its well-established training spaces for crafts and folk arts.Since 1910, Surakarta has been committed to organizing folk art performances, notably the Wayang Orang Opera, with regular shows at the Sriwedari Wayang Orang Building. The city has become a hub for folk arts performances, with open pavilions in every neighbourhood facilitating routine training and performances. Larger venues, such as the Central Javanese Culture and Balekambang Park Tourist area, showcase Ramayana Dance Dramas on full moon nights.Surakarta is renowned for its traditional batik textile production, a cornerstone of folk crafts. With 192 batik workshops and two batik villages, Kampung Batik Laweyan and Kampung Batik Kauman, the city thrives as a centre for this artistic expression. The government's support extends to providing gamelan orchestra instruments to neighbourhood centres and junior high schools for karawitan music activities.Rooted in the history of the Mataram kingdom, Surakarta’s citizens maintain strong ties to Javanese culture, including crafts and folk art. The creative economy thrives in sectors such as performing arts, crafts, culinary, and fashion, fostering broad stakeholder involvement. Despite challenges posed by the pandemic, Surakarta adapted, hosting 84 creative economy events between 2020 and 2022 and planning at least 48 national and international events for 2023. Added Value: As a Creative City of Crafts and Folk Art, Surakarta is dedicated: To leverage the field of Crafts and Folk Art as a key driver for sustainable urban development;To enhance the education among the youth of cultural traditions; and To utilize the Network to help promote knowledge exchange, job opportunities, and economic growth.</t>
+          <t xml:space="preserve"> Surakarta harnesses the rich potential within its cultural assets and creative economy, characterized by its 387 ateliers involving 1,081 artists. These ateliers cover a range of artistic disciplines, including traditional musicians, dancers, singers, theatre actors, painters, and sculptors. The city's commitment to nurturing artistic talent is evident in its well-established training spaces for crafts and folk arts.Since 1910, Surakarta has been committed to organizing folk art performances, notably the Wayang Orang Opera, with regular shows at the Sriwedari Wayang Orang Building. The city has become a hub for folk arts performances, with open pavilions in every neighbourhood facilitating routine training and performances. Larger venues, such as the Central Javanese Culture and Balekambang Park Tourist area, showcase Ramayana Dance Dramas on full moon nights.Surakarta is renowned for its traditional batik textile production, a cornerstone of folk crafts. With 192 batik workshops and two batik villages, Kampung Batik Laweyan and Kampung Batik Kauman, the city thrives as a centre for this artistic expression. The government's support extends to providing gamelan orchestra instruments to neighbourhood centres and junior high schools for karawitan music activities.Rooted in the history of the Mataram kingdom, Surakarta’s citizens maintain strong ties to Javanese culture, including crafts and folk art. The creative economy thrives in sectors such as performing arts, crafts, culinary, and fashion, fostering broad stakeholder involvement. Despite challenges posed by the pandemic, Surakarta adapted, hosting 84 creative economy events between 2020 and 2022 and planning at least 48 national and international events for 2023. Added Value: As a Creative City of Crafts and Folk Art, Surakarta is dedicated: To leverage the field of Crafts and Folk Art as a key driver for sustainable urban development;To enhance the education among the youth of cultural traditions; and To utilize the Network to help promote knowledge exchange, job opportunities, and economic growth.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>About the Creative City: Suphanburi showcases a rich musical heritage that transcends genres, ethnicities, and communities. Its musical identity, shaped over time, blends lyrical improvisation with agricultural styles, creating a distinctive tonality. Post-World War II, Suphanburi emerged as a hub for the nationally popular “Luk Thung” genre, merging classical tunes with lyrics expressing folk sentiments, rural nostalgia, and Western instruments for international appreciation.In its efforts to become a Creative City of Literature, Suphanburi intensified its music policies and education, expanded venues, promotes music for tourism, fosters cooperation across sectors, contributing to the existing vibrancy and creating new synergies among musical partners. Despite globalization, Suphanburi maintains a remarkable diversity of musical groups, spanning classical, folk, Luk Thung, and brass bands. Young musicians, inspired by the city’s national artists, cultivate their talents within families, schools, and music associations, often achieving success in national competitions and pursuing music careers. Approximately 300 residential groups regularly perform at various events, contributing to a radiant year-round musical atmosphere.Suphanburi leverages music as a coping mechanism for challenges, exemplified by the active senior members in the “Sing and Dance Club”, contributing to the city’s dynamic cultural landscape. Hosting over a hundred events annually, including the Donchedi Festival and the Pumpuang Duangjan Memorial, Suphanburi attracts large crowds, showcasing the city’s commitment to preserving its musical heritage. Added Value: As a Creative City of Music, Suphanburi is dedicated: To integrate music into sustainable urban development efforts, highlighting the role of culture as a key driver for inclusive and sustainable development, particularly supporting marginalized groups;To establish a sustainable music industry ecosystem that nurtures talent, fosters collaboration, creates job opportunities, and enhances the local economy;To highlight education and learning to provide equity and opportunities for preserving cultural heritage;To promote the diverse musical heritage of the region; andTo showcase how a culturally rich city can adapt and thrive in an increasingly urbanized and globalized world.</t>
+          <t xml:space="preserve"> Suphanburi showcases a rich musical heritage that transcends genres, ethnicities, and communities. Its musical identity, shaped over time, blends lyrical improvisation with agricultural styles, creating a distinctive tonality. Post-World War II, Suphanburi emerged as a hub for the nationally popular “Luk Thung” genre, merging classical tunes with lyrics expressing folk sentiments, rural nostalgia, and Western instruments for international appreciation.In its efforts to become a Creative City of Literature, Suphanburi intensified its music policies and education, expanded venues, promotes music for tourism, fosters cooperation across sectors, contributing to the existing vibrancy and creating new synergies among musical partners. Despite globalization, Suphanburi maintains a remarkable diversity of musical groups, spanning classical, folk, Luk Thung, and brass bands. Young musicians, inspired by the city’s national artists, cultivate their talents within families, schools, and music associations, often achieving success in national competitions and pursuing music careers. Approximately 300 residential groups regularly perform at various events, contributing to a radiant year-round musical atmosphere.Suphanburi leverages music as a coping mechanism for challenges, exemplified by the active senior members in the “Sing and Dance Club”, contributing to the city’s dynamic cultural landscape. Hosting over a hundred events annually, including the Donchedi Festival and the Pumpuang Duangjan Memorial, Suphanburi attracts large crowds, showcasing the city’s commitment to preserving its musical heritage. Added Value: As a Creative City of Music, Suphanburi is dedicated: To integrate music into sustainable urban development efforts, highlighting the role of culture as a key driver for inclusive and sustainable development, particularly supporting marginalized groups;To establish a sustainable music industry ecosystem that nurtures talent, fosters collaboration, creates job opportunities, and enhances the local economy;To highlight education and learning to provide equity and opportunities for preserving cultural heritage;To promote the diverse musical heritage of the region; andTo showcase how a culturally rich city can adapt and thrive in an increasingly urbanized and globalized world.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>About the Creative City: Şanlıurfa, deeply entrenched in creativity, possesses a musical and cultural heritage dating back to the Neolithic period. The city serves as a historical melting pot, bringing together people of diverse cultures and languages through its rich musical tradition. This city regards the music industry is a driving force in the tourism sector. Music plays a pivotal role in uniting different social groups and enhancing the city’s liveability, supported by well-established cultural centres, conservatoires, and other music institutions. Building on this foundation, various programmes aim to use the universal language of music to help young people acquire new skills, understand differences, and establish social cohesion, especially with refugees.Şanlıurfa's unique cultural and musical heritage, dating back to 10,000 B.C., has gained international recognition. Acknowledged as the birthplace of church music, the city’s civil, cultural, and academic groups actively pursue international collaboration for economic development and creating opportunities for marginalized groups. The city collaborates with Creative Cities such as Kırşehir, İstanbul, Bogota, Lliria, Bakü, Sheiki, and Essaouira. The International Music Festival held in 2021 is a testament to this international engagement.Its designation as a UNESCO City of Music will spotlight Şanlıurfa's cultural richness and support the city’s efforts in cultural promotion.  Added Value: As a Creative City of Music, Şanlıurfa is dedicated: To strengthen international cooperation with the Network, establishing collaborations and partnerships;To develop creativity hubs to support creators and enhance access to cultural life, especially for women and marginalized groups;To integrate culture and creativity into city life though programmes promoting public engagement;To build networks to share best practices, musical traditions, and partnering to integrate music into sustainable urban development.</t>
+          <t xml:space="preserve"> Şanlıurfa, deeply entrenched in creativity, possesses a musical and cultural heritage dating back to the Neolithic period. The city serves as a historical melting pot, bringing together people of diverse cultures and languages through its rich musical tradition. This city regards the music industry is a driving force in the tourism sector. Music plays a pivotal role in uniting different social groups and enhancing the city’s liveability, supported by well-established cultural centres, conservatoires, and other music institutions. Building on this foundation, various programmes aim to use the universal language of music to help young people acquire new skills, understand differences, and establish social cohesion, especially with refugees.Şanlıurfa's unique cultural and musical heritage, dating back to 10,000 B.C., has gained international recognition. Acknowledged as the birthplace of church music, the city’s civil, cultural, and academic groups actively pursue international collaboration for economic development and creating opportunities for marginalized groups. The city collaborates with Creative Cities such as Kırşehir, İstanbul, Bogota, Lliria, Bakü, Sheiki, and Essaouira. The International Music Festival held in 2021 is a testament to this international engagement.Its designation as a UNESCO City of Music will spotlight Şanlıurfa's cultural richness and support the city’s efforts in cultural promotion.  Added Value: As a Creative City of Music, Şanlıurfa is dedicated: To strengthen international cooperation with the Network, establishing collaborations and partnerships;To develop creativity hubs to support creators and enhance access to cultural life, especially for women and marginalized groups;To integrate culture and creativity into city life though programmes promoting public engagement;To build networks to share best practices, musical traditions, and partnering to integrate music into sustainable urban development.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>About the Creative City: Rio de Janeiro joins the UCCN with a belief in literature’s potential as a catalyst for sociocultural development at local, national, and international levels. The city sees literature as a powerful tool to address inequalities and enhance the quality of life, particularly for young people in socially complex areas, where libraries serve as gateways to cultural citizenship.Numerous cultural industries, including Carnival samba school parades, draw inspiration from literary works, reflecting in music, theatre, and neighbourhood cultural life. Rio de Janeiro’s approach to literature involves identifying development opportunities and tackling challenges creatively. Programmes promoting reading, literary-driven pacification projects, and the recognition of local artists are integral elements of this strategy.Overcoming challenges, such as limited access to quality education and the impacts of the Covid-19 pandemic, is a priority. Essential to this effort is investment in libraries, reading spaces, and the training of cultural agents and mediators. Ultimately, Rio de Janeiro aims to harness the full potential of literature to drive sustainable urban development.The book sector significantly contributes to Rio de Janeiro’s economy, with the metropolitan region accounting for 14% of national book sales, totalling 7.95 million units and generating a turnover of 66.2 million USD in 2022. The city hosts major publishers like Grupo Gen, Globo, Record, Rocco, and Sextante. Of the 214 bookstores in the state of Rio de Janeiro, 146 are in the city, which is also home to 125 publishers associated with the National Union of Book Editors (SNEL). Aligned with the City Hall’s objectives, SNEL works towards making books more accessible to Brazilian citizens, emphasizing diversity and sustainability in preserving bibliodiversity.  Added Value: As a Creative City of Literature, Rio de Janeiro is dedicated: To modernize libraries and reading spaces, fostering growth in the literature sector;To annually initiate initiatives and programmes promoting literature; andTo facilitate local, national, and international exchange of experiences, knowledge, and good practices in the field of literature.</t>
+          <t xml:space="preserve"> Rio de Janeiro joins the UCCN with a belief in literature’s potential as a catalyst for sociocultural development at local, national, and international levels. The city sees literature as a powerful tool to address inequalities and enhance the quality of life, particularly for young people in socially complex areas, where libraries serve as gateways to cultural citizenship.Numerous cultural industries, including Carnival samba school parades, draw inspiration from literary works, reflecting in music, theatre, and neighbourhood cultural life. Rio de Janeiro’s approach to literature involves identifying development opportunities and tackling challenges creatively. Programmes promoting reading, literary-driven pacification projects, and the recognition of local artists are integral elements of this strategy.Overcoming challenges, such as limited access to quality education and the impacts of the Covid-19 pandemic, is a priority. Essential to this effort is investment in libraries, reading spaces, and the training of cultural agents and mediators. Ultimately, Rio de Janeiro aims to harness the full potential of literature to drive sustainable urban development.The book sector significantly contributes to Rio de Janeiro’s economy, with the metropolitan region accounting for 14% of national book sales, totalling 7.95 million units and generating a turnover of 66.2 million USD in 2022. The city hosts major publishers like Grupo Gen, Globo, Record, Rocco, and Sextante. Of the 214 bookstores in the state of Rio de Janeiro, 146 are in the city, which is also home to 125 publishers associated with the National Union of Book Editors (SNEL). Aligned with the City Hall’s objectives, SNEL works towards making books more accessible to Brazilian citizens, emphasizing diversity and sustainability in preserving bibliodiversity.  Added Value: As a Creative City of Literature, Rio de Janeiro is dedicated: To modernize libraries and reading spaces, fostering growth in the literature sector;To annually initiate initiatives and programmes promoting literature; andTo facilitate local, national, and international exchange of experiences, knowledge, and good practices in the field of literature.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>About the Creative City:Bissau’s vibrant society comprises diverse communities, each with its unique cultural traditions and languages. This diversity finds its expression in the city’s music and dance, which play a vital role in shaping the national identity. Creative and cultural hubs across the city house music and dance production companies and recording studios. Bissau’s designation as a Creative City of Music is a significant achievement, which bridges identities in a more sustainable world, unified through music and creativity. In this Creative City, tradition and contemporary ideas meet, making Bissau a dynamic city where innovation and tradition coexist harmoniously. Music is at the heart of this creative blend, intertwined with the country's history and spreading traditional expressions. Bissau hosts weekly music festivals and concerts, drawing the participation of various audio-visual production companies. Many young people are also involved in music, which has increased the number of recording studios, all playing a key role in creating a lively cultural scene. Music and dance schools are also thriving in all the city's neighbourhoods and mainstream bands and local musicians share their talents to the public across the city in cultural centres, restaurants, and hotels. Added Value: As a Creative City of Music, Bissau is dedicated:To promote intercontinental cooperation, collaboration, and dialogue by creating stronger cultural links between different regions and fostering international cultural exchange;To share good practices for sustainable development within diverse societies, emphasizing the importance of rebuilding the country based on its national identity and culture;To integrate cultural dimensions into development strategies and promote active participation within society;To stimulate the creative economy, support talent, and generate employment opportunities within the field of music; and To protect and value cultural expressions, underscoring their significance for further generations.</t>
+          <t>Bissau’s vibrant society comprises diverse communities, each with its unique cultural traditions and languages. This diversity finds its expression in the city’s music and dance, which play a vital role in shaping the national identity. Creative and cultural hubs across the city house music and dance production companies and recording studios. Bissau’s designation as a Creative City of Music is a significant achievement, which bridges identities in a more sustainable world, unified through music and creativity. In this Creative City, tradition and contemporary ideas meet, making Bissau a dynamic city where innovation and tradition coexist harmoniously. Music is at the heart of this creative blend, intertwined with the country's history and spreading traditional expressions. Bissau hosts weekly music festivals and concerts, drawing the participation of various audio-visual production companies. Many young people are also involved in music, which has increased the number of recording studios, all playing a key role in creating a lively cultural scene. Music and dance schools are also thriving in all the city's neighbourhoods and mainstream bands and local musicians share their talents to the public across the city in cultural centres, restaurants, and hotels. Added Value: As a Creative City of Music, Bissau is dedicated:To promote intercontinental cooperation, collaboration, and dialogue by creating stronger cultural links between different regions and fostering international cultural exchange;To share good practices for sustainable development within diverse societies, emphasizing the importance of rebuilding the country based on its national identity and culture;To integrate cultural dimensions into development strategies and promote active participation within society;To stimulate the creative economy, support talent, and generate employment opportunities within the field of music; and To protect and value cultural expressions, underscoring their significance for further generations.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>About the Creative City: Bolzano is a vibrant city that is distinguished by the coexistence of three different cultures and languages – Italian, German, and Ladin. Since the late 19th century, music has served as the universal language that unites the diverse cultures residing in this region.The city's musical heritage is characterized by the Monteverdi Conservatory, contributing to Bolzano's reputation for musical excellence. It is also home to the renowned Busoni Piano Competition, an international musical competition created in 1949. Bolzano livens up  in the summer months with the residencies of the European Union Youth Orchestra, the Gustav Mahler Jugendorchester, and the Gustav Mahler Academy, all initiated by Maestro Claudio Abbado. Furthermore, the Haydn Orchestra, established in 1960, has become a regional hub for musical appreciation and education. Bolzano also hosts international festivals each year, such as the Südtirol Jazzfestival and Bolzano Danza.The multicultural city of Bolzano believes that making music together nurtures harmony among diverse individuals, forming the foundation of a unified community. The city aims to utilize music as a tool to enhance social well-being and promote sustainable urban development. Added Value: As a Creative City of Music, Bolzano is dedicated:To foster inclusivity within the city, using music as a tool for dialogue across generations and engaging new citizens in its border region;To increase the involvement and empowerment of younger audiences, offering creativity as an opportunity for personal and professional growth;To use digital technology to share knowledge on an international scale, making the city’s music and other creative fields more accessible; and To promote creativity and culture as strategic elements of sustainable urban development and their impact on a more inclusive society.</t>
+          <t xml:space="preserve"> Bolzano is a vibrant city that is distinguished by the coexistence of three different cultures and languages – Italian, German, and Ladin. Since the late 19th century, music has served as the universal language that unites the diverse cultures residing in this region.The city's musical heritage is characterized by the Monteverdi Conservatory, contributing to Bolzano's reputation for musical excellence. It is also home to the renowned Busoni Piano Competition, an international musical competition created in 1949. Bolzano livens up  in the summer months with the residencies of the European Union Youth Orchestra, the Gustav Mahler Jugendorchester, and the Gustav Mahler Academy, all initiated by Maestro Claudio Abbado. Furthermore, the Haydn Orchestra, established in 1960, has become a regional hub for musical appreciation and education. Bolzano also hosts international festivals each year, such as the Südtirol Jazzfestival and Bolzano Danza.The multicultural city of Bolzano believes that making music together nurtures harmony among diverse individuals, forming the foundation of a unified community. The city aims to utilize music as a tool to enhance social well-being and promote sustainable urban development. Added Value: As a Creative City of Music, Bolzano is dedicated:To foster inclusivity within the city, using music as a tool for dialogue across generations and engaging new citizens in its border region;To increase the involvement and empowerment of younger audiences, offering creativity as an opportunity for personal and professional growth;To use digital technology to share knowledge on an international scale, making the city’s music and other creative fields more accessible; and To promote creativity and culture as strategic elements of sustainable urban development and their impact on a more inclusive society.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>About the Creative City: Bremen's literary landscape is both expansive and vibrant, serving as a testament to the city's rich literary heritage. The city is home to two dedicated associations, the “Literaturkontor” and the virtual Literaturkontor, both of which have passionately advocated on behalf of authors for decades. In addition to its literary associations, Bremen boasts a thriving literary scene with several notable highlights. The city proudly hosts the Bremen Literature Prize and is internationally renowned for the Centre for Artist's Publications (Zentrum für Künstlerpublikationen), a unique collection in Europe. Furthermore, the city library, which welcomes 2.2 million visitors each year, stands as an example of literary resources and community engagement. Bremen's literary festival landscape is equally impressive, featuring events like Poetry on the Road, Globale°, Crime Time - Prime Time, and Galaxy of Books.One notable aspect of Bremen's literary scene is the remarkable density of bookshops, generating an annual turnover of 26 million EUR. The city's commitment to literature extends to innovative educational initiatives and university education formats that aim to foster a love for reading. An annual celebration of World Book and Copyright Day shines a spotlight on the world of literature in Bremen's city centre. In the world of digital innovation, the Literaturhaus serves as a virtual production, actively engaging in literary work with children and the youth through initiatives such as the “Schoolhouse Novel” (Schulhausroman) and “Flying Classroom” (Fliegendes Klassenzimmer). Furthermore, the Literaturkontor promotes young writers and collaborates with local authors through readings, projects, and workshops. Bremen also hosts various annual literacy contests and poetry festivals, further enriching its literary landscape. Added Value: As a Creative City of Literature, Bremen is dedicated:To strengthen its literary scene and cultural education projects, and make public forums accessible to a broader audience, fostering a sense of inclusivity;To increase international cooperation to expand its literary potential; and To form partnerships through the Network to facilitate cultural and creative exchange, as well as the sharing of knowledge and ideas.</t>
+          <t xml:space="preserve"> Bremen's literary landscape is both expansive and vibrant, serving as a testament to the city's rich literary heritage. The city is home to two dedicated associations, the “Literaturkontor” and the virtual Literaturkontor, both of which have passionately advocated on behalf of authors for decades. In addition to its literary associations, Bremen boasts a thriving literary scene with several notable highlights. The city proudly hosts the Bremen Literature Prize and is internationally renowned for the Centre for Artist's Publications (Zentrum für Künstlerpublikationen), a unique collection in Europe. Furthermore, the city library, which welcomes 2.2 million visitors each year, stands as an example of literary resources and community engagement. Bremen's literary festival landscape is equally impressive, featuring events like Poetry on the Road, Globale°, Crime Time - Prime Time, and Galaxy of Books.One notable aspect of Bremen's literary scene is the remarkable density of bookshops, generating an annual turnover of 26 million EUR. The city's commitment to literature extends to innovative educational initiatives and university education formats that aim to foster a love for reading. An annual celebration of World Book and Copyright Day shines a spotlight on the world of literature in Bremen's city centre. In the world of digital innovation, the Literaturhaus serves as a virtual production, actively engaging in literary work with children and the youth through initiatives such as the “Schoolhouse Novel” (Schulhausroman) and “Flying Classroom” (Fliegendes Klassenzimmer). Furthermore, the Literaturkontor promotes young writers and collaborates with local authors through readings, projects, and workshops. Bremen also hosts various annual literacy contests and poetry festivals, further enriching its literary landscape. Added Value: As a Creative City of Literature, Bremen is dedicated:To strengthen its literary scene and cultural education projects, and make public forums accessible to a broader audience, fostering a sense of inclusivity;To increase international cooperation to expand its literary potential; and To form partnerships through the Network to facilitate cultural and creative exchange, as well as the sharing of knowledge and ideas.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>About the Creative City: The use of music, as a cultural resource, has a remarkable impact on the sustainable urban development of Caracas. With over 61 cultural areas dedicated to nurturing and promoting live music for diverse audiences, Caracas has cultivated a thriving musical landscape. Notably, the Luthier Academic Program, offered by the National System of Youth and Children’s Orchestras and Choirs of Venezuela, stands as a testament to Caracas’ commitment to engaging and empowering the youth within the music industry.Caracas has embarked on a transformative journey toward sustainable development, one that has a profound impact on the music industry marked by the creation of opportunities in employment, entrepreneurship, and the nurturing of creativity and innovation. Notable steps in this journey include consolidating music creation networks, reimagining the dynamic between musical traditions and contemporary influences, fostering cultural and creative small businesses, preserving the city's rich cultural heritage, and promoting a profound connection between music and the development of cultural tourism.As an innovative and creative city, Caracas is dedicated to a range of programmes and projects designed to strengthen the cultural and creative sectors. The city places a special emphasis on enhancing its urban creative ecosystems, weaving together various public and private organizations and institutions exclusively committed to music. These entities actively engage in international cooperation, represented by the Caracas Municipal Symphony Orchestra Foundation’s agreements with valued global partners such as the Associated Board of The Royal Schools of Music (United Kingdom), Peace Boat (Japan), Mozarteum (Argentina), and Música Vivendi (Germany and Croatia), among others. Added Value: As a Creative City of Music, Caracas is dedicated:To promote local strategic planning for economic, cultural, and social development based on the cultural and creative music economy;To foster the creation and growth of productive entrepreneurships within the cultural and creative fields, particularly within the musical ecosystem of the city;To promote the professionalization of creators, artists, and institutions engaged in various subnetworks of the UCCN; andTo stimulate cultural exchange on a local, national, and international levels, promoting dialogue through the universal language of music.</t>
+          <t xml:space="preserve"> The use of music, as a cultural resource, has a remarkable impact on the sustainable urban development of Caracas. With over 61 cultural areas dedicated to nurturing and promoting live music for diverse audiences, Caracas has cultivated a thriving musical landscape. Notably, the Luthier Academic Program, offered by the National System of Youth and Children’s Orchestras and Choirs of Venezuela, stands as a testament to Caracas’ commitment to engaging and empowering the youth within the music industry.Caracas has embarked on a transformative journey toward sustainable development, one that has a profound impact on the music industry marked by the creation of opportunities in employment, entrepreneurship, and the nurturing of creativity and innovation. Notable steps in this journey include consolidating music creation networks, reimagining the dynamic between musical traditions and contemporary influences, fostering cultural and creative small businesses, preserving the city's rich cultural heritage, and promoting a profound connection between music and the development of cultural tourism.As an innovative and creative city, Caracas is dedicated to a range of programmes and projects designed to strengthen the cultural and creative sectors. The city places a special emphasis on enhancing its urban creative ecosystems, weaving together various public and private organizations and institutions exclusively committed to music. These entities actively engage in international cooperation, represented by the Caracas Municipal Symphony Orchestra Foundation’s agreements with valued global partners such as the Associated Board of The Royal Schools of Music (United Kingdom), Peace Boat (Japan), Mozarteum (Argentina), and Música Vivendi (Germany and Croatia), among others. Added Value: As a Creative City of Music, Caracas is dedicated:To promote local strategic planning for economic, cultural, and social development based on the cultural and creative music economy;To foster the creation and growth of productive entrepreneurships within the cultural and creative fields, particularly within the musical ecosystem of the city;To promote the professionalization of creators, artists, and institutions engaged in various subnetworks of the UCCN; andTo stimulate cultural exchange on a local, national, and international levels, promoting dialogue through the universal language of music.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>About the Creative City: Bukhara, with its exceptional cultural and architectural heritage, has a rich tradition of craftsmanship that dates back to ancient times. Today, the craft industry plays a pivotal role in the city’s development, contributing to economic growth, job creation, increased tourism, social inclusion, environmental sustainability, the preservation of cultural heritage, and the creation of a distinct city identity.Bukhara boasts a rich heritage of cultural assets and a thriving creative industry in the crafts sector. The city’s craftsmanship is instrumental in safeguarding and promoting traditional arts and crafts. Skilled artisans continue to practice age-old techniques, crafting exquisite golden embroidery, ceramics, jewellery, and woodwork. Crafts are deeply intertwined with the region's history, particularly along the ancient Silk Road, and cultural traditions, serving as a significant source of cultural identity. Bukhara also hosts numerous crafts workshops that employ a significant number of skilled artisans. This community not only contributes to the local economy but also acts as a guardian of cultural heritage and the skills passed down through generations. Artisans collaborate with local organizations, schools, and cultural institutions, offering training programmes and workshops to ensure the preservation and transmission of traditional craftsmanship.Moreover, Bukhara’s crafts products have experienced a revival in global interest and have gained recognition on the international stage. This has opened doors to increased export opportunities, contributing to the economic growth of both the crafts sector and the city as a whole. The commitment to preserving traditional crafts, the involvement of skilled artisans, and the growing international recognition of Bukhara's crafts all serve as testaments to the city's cultural and creative ability. Added Value: As a Creative City of Crafts and Folk Art, Bukhara is dedicated:To foster cooperation with other Creative Cities, sharing experiences, and transferring best practices within the Network;To work with the Network to protect and preserve skills and knowledge, ensuring their accessibility and continuation for future generations;To utilize the Network to help gain international recognition, thereby impacting tourism and the economy; and To collaborate with stakeholders to provide support in terms of training, access to markets, and infrastructure development, enabling the city to strive in a sustainable manner.</t>
+          <t xml:space="preserve"> Bukhara, with its exceptional cultural and architectural heritage, has a rich tradition of craftsmanship that dates back to ancient times. Today, the craft industry plays a pivotal role in the city’s development, contributing to economic growth, job creation, increased tourism, social inclusion, environmental sustainability, the preservation of cultural heritage, and the creation of a distinct city identity.Bukhara boasts a rich heritage of cultural assets and a thriving creative industry in the crafts sector. The city’s craftsmanship is instrumental in safeguarding and promoting traditional arts and crafts. Skilled artisans continue to practice age-old techniques, crafting exquisite golden embroidery, ceramics, jewellery, and woodwork. Crafts are deeply intertwined with the region's history, particularly along the ancient Silk Road, and cultural traditions, serving as a significant source of cultural identity. Bukhara also hosts numerous crafts workshops that employ a significant number of skilled artisans. This community not only contributes to the local economy but also acts as a guardian of cultural heritage and the skills passed down through generations. Artisans collaborate with local organizations, schools, and cultural institutions, offering training programmes and workshops to ensure the preservation and transmission of traditional craftsmanship.Moreover, Bukhara’s crafts products have experienced a revival in global interest and have gained recognition on the international stage. This has opened doors to increased export opportunities, contributing to the economic growth of both the crafts sector and the city as a whole. The commitment to preserving traditional crafts, the involvement of skilled artisans, and the growing international recognition of Bukhara's crafts all serve as testaments to the city's cultural and creative ability. Added Value: As a Creative City of Crafts and Folk Art, Bukhara is dedicated:To foster cooperation with other Creative Cities, sharing experiences, and transferring best practices within the Network;To work with the Network to protect and preserve skills and knowledge, ensuring their accessibility and continuation for future generations;To utilize the Network to help gain international recognition, thereby impacting tourism and the economy; and To collaborate with stakeholders to provide support in terms of training, access to markets, and infrastructure development, enabling the city to strive in a sustainable manner.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>About the Creative City: Encouraging intersectoral cooperation and project development at the crossroads of sciences, technologies and arts, the city of Caen now counts more than 1,000 firms employing about 5,000 people in the creative field of Media Arts on its territory. With the city’s active participation, local initiatives, such as the support platforms Oblique/s and Station Mire, have demonstrated the important role played by Caen in the creative field of Media Arts. Most notably, the city’s Interstice Festival provides an opportunity to citizens and visitors to discover the work of local and international media artists, while involving each neighborhood of the city in the organization of the event to foster social inclusion and guarantee accessibility to culture for all.Moreover, Caen has long been an important supporter of pioneering digital artists. It positions itself as an incubator of digital talents, with a prominent focus on the valorization and emergence of local media artists by awarding annually grants for visual and digital projects. Supporting the use of media arts in educational and academic contexts, especially in the frame of Millenium Caen 2025 project, the Creative City of Caen aims to harness the potential of media arts to reduce social and gender inequalities, and to train future enlightened citizens capable of understanding, promoting and defending UNESCO’s mandate and value.  Added Value:As a Creative City of Media Arts, Caen is dedicated: To identifying new avenues to protect and promote local heritage through Media Arts to guarantee accessibility and foster local social cohesion and belonging;To leveraging culture and creativity to foster innovation in the field of urban planning; To guaranteeing youth involvement in and benefits from a dynamic local digital arts scene, especially through an increased use of media arts in educational and academic areas; andTo promoting international cooperation and dialogue through media arts.</t>
+          <t xml:space="preserve"> Encouraging intersectoral cooperation and project development at the crossroads of sciences, technologies and arts, the city of Caen now counts more than 1,000 firms employing about 5,000 people in the creative field of Media Arts on its territory. With the city’s active participation, local initiatives, such as the support platforms Oblique/s and Station Mire, have demonstrated the important role played by Caen in the creative field of Media Arts. Most notably, the city’s Interstice Festival provides an opportunity to citizens and visitors to discover the work of local and international media artists, while involving each neighborhood of the city in the organization of the event to foster social inclusion and guarantee accessibility to culture for all.Moreover, Caen has long been an important supporter of pioneering digital artists. It positions itself as an incubator of digital talents, with a prominent focus on the valorization and emergence of local media artists by awarding annually grants for visual and digital projects. Supporting the use of media arts in educational and academic contexts, especially in the frame of Millenium Caen 2025 project, the Creative City of Caen aims to harness the potential of media arts to reduce social and gender inequalities, and to train future enlightened citizens capable of understanding, promoting and defending UNESCO’s mandate and value.  Added Value:As a Creative City of Media Arts, Caen is dedicated: To identifying new avenues to protect and promote local heritage through Media Arts to guarantee accessibility and foster local social cohesion and belonging;To leveraging culture and creativity to foster innovation in the field of urban planning; To guaranteeing youth involvement in and benefits from a dynamic local digital arts scene, especially through an increased use of media arts in educational and academic areas; andTo promoting international cooperation and dialogue through media arts.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>About the Creative City: Chiang Rai stands as a testament to thoughtful urban planning, strategically positioned as an administrative and trade hub in Southeast Asia. Situated between a mountain range and river plain, the city’s design harmonizes with its diverse regional ethnicity. Across its rich history, Chiang Rai underwent redesigns, adapting to shifting regional dynamics. The city’s landscape, characterized by open gardens and riverfronts, reflects the ethos of cultural and nature-centric design. Chiang Rai’s current design prowess is a testament to elevated education standards and vibrant national and international artistic interactions. As a UNESCO Creative City of Design, Chiang Rai’s policy extends beyond physical products, encompassing cultural goods, services, and fostering a spirit of happiness and peace.Initiatives and programmes in the field of design include: The Co-creation Workshop Programme in service design, which was initiated with the intention to promote equity and sustainability among local young designers and women. Also, the Ministry of Culture launched the project “Thai Cultural Products”, introduced to develop an understanding of local culture and product designing. Many other programmes and initiatives have been established with the primary aim to foster local design and artists as a mechanism for sustainable urban development.  Added Value: As a Creative City of Design, Chiang Rai is dedicated:To promote learning exchanges within the global design community and emphasising sustainability;To utilize design concepts to address environmental challenges and enhance the value of agricultural products and services;To encourage youth engagement within design industries; and To support the construction of facilities grounded in design creativity.</t>
+          <t xml:space="preserve"> Chiang Rai stands as a testament to thoughtful urban planning, strategically positioned as an administrative and trade hub in Southeast Asia. Situated between a mountain range and river plain, the city’s design harmonizes with its diverse regional ethnicity. Across its rich history, Chiang Rai underwent redesigns, adapting to shifting regional dynamics. The city’s landscape, characterized by open gardens and riverfronts, reflects the ethos of cultural and nature-centric design. Chiang Rai’s current design prowess is a testament to elevated education standards and vibrant national and international artistic interactions. As a UNESCO Creative City of Design, Chiang Rai’s policy extends beyond physical products, encompassing cultural goods, services, and fostering a spirit of happiness and peace.Initiatives and programmes in the field of design include: The Co-creation Workshop Programme in service design, which was initiated with the intention to promote equity and sustainability among local young designers and women. Also, the Ministry of Culture launched the project “Thai Cultural Products”, introduced to develop an understanding of local culture and product designing. Many other programmes and initiatives have been established with the primary aim to foster local design and artists as a mechanism for sustainable urban development.  Added Value: As a Creative City of Design, Chiang Rai is dedicated:To promote learning exchanges within the global design community and emphasising sustainability;To utilize design concepts to address environmental challenges and enhance the value of agricultural products and services;To encourage youth engagement within design industries; and To support the construction of facilities grounded in design creativity.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>About the Creative City: At the heart of Castelo Branco, the impressive art of Castelo Branco Embroidery weaves a unique and distinctive cultural landscape that sets the city apart. This embroidery, celebrated not only for its beauty but also for its economic significance, has become an enduring symbol of the city, decorating sidewalks and buildings as a testament to its rich cultural heritage. Artisans, with a commitment to preserving this valued tradition, continue to produce specialized embroidery, contributing to its continued relevance within the creative world.Castelo Branco has also engaged in international collaboration, forging partnerships with cities across Asia, Africa, the Americas, and Europe. These initiatives extend to foreign communities and contribute to a rich landscape of cross-border relations that amplify the city's cultural and creative influence. With an effort to reverse demographic decline, the municipality has prioritized enhancing the quality of life. This commitment has positioned Castelo Branco as one of the most attractive and liveable cities in the country, drawing in foreign residents and investments. Key strategies such as the Municipal Environmental Sustainability Plan and Castelo Branco 2030 have driven the city to international prominence as a hub of culture and creativity.The significance of Castelo Branco’s crafts industry plays a central role in the city’s development. The introduction of the “Embroidery and Hosting” brand to better represent and protect local artisans has become a milestone in the city's growth. Further initiatives have been fostered at city level, including research, preservation, training, and promotion of the local crafts. Events of national significance such as the Castelo Branco Fashion and the Castelo Branco Embroidery in Fashion contest have contributed to the promotion of this specific tradition. Added Value: As a Creative City of Crafts and Folk Art, Castelo Branco is dedicated:To preserve and transmit local, traditional techniques, offering training opportunities to sustain these crafts;To engage in international cooperation and exchange with other Creative Cities of Crafts and Folk Art to foster shared creativity; and To leverage the Network to ensure diversity, sustainability, social inclusion, and urban regeneration, ensuring that its cultural heritage continues to flourish.</t>
+          <t xml:space="preserve"> At the heart of Castelo Branco, the impressive art of Castelo Branco Embroidery weaves a unique and distinctive cultural landscape that sets the city apart. This embroidery, celebrated not only for its beauty but also for its economic significance, has become an enduring symbol of the city, decorating sidewalks and buildings as a testament to its rich cultural heritage. Artisans, with a commitment to preserving this valued tradition, continue to produce specialized embroidery, contributing to its continued relevance within the creative world.Castelo Branco has also engaged in international collaboration, forging partnerships with cities across Asia, Africa, the Americas, and Europe. These initiatives extend to foreign communities and contribute to a rich landscape of cross-border relations that amplify the city's cultural and creative influence. With an effort to reverse demographic decline, the municipality has prioritized enhancing the quality of life. This commitment has positioned Castelo Branco as one of the most attractive and liveable cities in the country, drawing in foreign residents and investments. Key strategies such as the Municipal Environmental Sustainability Plan and Castelo Branco 2030 have driven the city to international prominence as a hub of culture and creativity.The significance of Castelo Branco’s crafts industry plays a central role in the city’s development. The introduction of the “Embroidery and Hosting” brand to better represent and protect local artisans has become a milestone in the city's growth. Further initiatives have been fostered at city level, including research, preservation, training, and promotion of the local crafts. Events of national significance such as the Castelo Branco Fashion and the Castelo Branco Embroidery in Fashion contest have contributed to the promotion of this specific tradition. Added Value: As a Creative City of Crafts and Folk Art, Castelo Branco is dedicated:To preserve and transmit local, traditional techniques, offering training opportunities to sustain these crafts;To engage in international cooperation and exchange with other Creative Cities of Crafts and Folk Art to foster shared creativity; and To leverage the Network to ensure diversity, sustainability, social inclusion, and urban regeneration, ensuring that its cultural heritage continues to flourish.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>About the Creative City: Cetinje stands as a city renowned for its rich history and cultural heritage, providing inspiration to artists across diverse fields. Today, the city is dedicated to revitalizing cultural values, particularly by engaging the vibrant community of young artists. Joining the Network represents an opportunity for Cetinje to draw additional inspiration, facilitate medium to long-term cultural planning, and attract vital support from stakeholders beyond the city's administration.This designation emphasizes the need for comprehensive planning, particularly for significant festivals and cultural events that consistently involve the local community. Cetinje's history and development have been significantly influenced by the foundational role of creativity, giving rise to noteworthy festivals and events. Among these, the Cetinje Biennale, held between 1990 and 2004, brought together over 2,000 artists, leaving a lasting impact on subsequent cultural initiatives.Notable initiatives of the city include the “Beautiful Cetinje” joint initiative with the United Nations Development Programme, contributing to city design projects, and the striving Modern Arts Centre of Cetinje. Additionally, programmes like “Open Heart Cetinje” and the annual “Fluid Design Week” organized by the Faculty of Fine Arts showcase the city's commitment to fostering creativity, engaging younger generations, building regional recognition, and promoting gender equality. Added Value: As a Creative City of Design, Cetinje is dedicated:To foster creativity and innovation within the city, developing a vibrant design scene;To actively contribute to the exchange of ideas, knowledge, and good practices with other UCCN cities, enriching the collective understanding and advancement of design on a global scale; and To commit the creation of various cultural events, festivals, and initiatives that promote artistic expression, cultural diversity, and social inclusion, enhancing the local cultural landscape but also to provide opportunities for collaboration with other Creative Cities.</t>
+          <t xml:space="preserve"> Cetinje stands as a city renowned for its rich history and cultural heritage, providing inspiration to artists across diverse fields. Today, the city is dedicated to revitalizing cultural values, particularly by engaging the vibrant community of young artists. Joining the Network represents an opportunity for Cetinje to draw additional inspiration, facilitate medium to long-term cultural planning, and attract vital support from stakeholders beyond the city's administration.This designation emphasizes the need for comprehensive planning, particularly for significant festivals and cultural events that consistently involve the local community. Cetinje's history and development have been significantly influenced by the foundational role of creativity, giving rise to noteworthy festivals and events. Among these, the Cetinje Biennale, held between 1990 and 2004, brought together over 2,000 artists, leaving a lasting impact on subsequent cultural initiatives.Notable initiatives of the city include the “Beautiful Cetinje” joint initiative with the United Nations Development Programme, contributing to city design projects, and the striving Modern Arts Centre of Cetinje. Additionally, programmes like “Open Heart Cetinje” and the annual “Fluid Design Week” organized by the Faculty of Fine Arts showcase the city's commitment to fostering creativity, engaging younger generations, building regional recognition, and promoting gender equality. Added Value: As a Creative City of Design, Cetinje is dedicated:To foster creativity and innovation within the city, developing a vibrant design scene;To actively contribute to the exchange of ideas, knowledge, and good practices with other UCCN cities, enriching the collective understanding and advancement of design on a global scale; and To commit the creation of various cultural events, festivals, and initiatives that promote artistic expression, cultural diversity, and social inclusion, enhancing the local cultural landscape but also to provide opportunities for collaboration with other Creative Cities.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>About the Creative City: Situated between seas and mountains, Chaozhou is a city shaped by over 1,600 years of history. This rich heritage has gifted the city with unique cultural treasures, such as Chaozhou Gongfu tea and a distinctive cuisine. The city is celebrated as the birthplace of Chaozhou Cuisine and acknowledges culture as a global public good. This Creative City is endowed with a mild climate, abundant rainfalls and rich food resources such as olive and tea and is also known as a Land of Fish and Rice.The globally renowned Chaozhou Cuisine is showcased and appreciated through restaurants spanning over 130 countries and regions. It has proudly represented China at World Expos and the Beijing Olympics, featuring a rich variety of over 500 dishes, 300 snacks, and 100 condiments. Chaozhou also hosts over 100 annual food-themed conferences, exhibitions, festivals, and contests. These serve as vibrant platforms for industry development and international communication and cooperation, offering a global audience a taste of Chaozhou’s creative gastronomy.The city hosts an extensive lineup of national culinary festivals, such as the Spring Festival, Lantern Festival, and Dragon Boat Festival. These events seamlessly combine Chaozhou’s gastronomic achievements with its rich traditional customs. According to the city, these events attract around 10 million citizens and tourists each year. Beyond enriching the city’s cultural sector, these festivals play an important role in fostering economic, social and environmental advancements, contributing significantly to the city’s sustainable urban development. Added Value: As a Creative City of Gastronomy, Chaozhou is dedicated:To leverage the role of creative gastronomy in driving sustainable urban development;To implement various initiatives to create more job opportunities, particularly for youth and women;To promote the necessity of healthy lifestyles, enhancing the well-being of people of all ages and sharing knowledge on the city’s gastronomical heritage; and To provide access to the city’s good practices, and work with the Network to reduce poverty, strengthen cooperations and promote sustainable development, supporting culture as a global public good.</t>
+          <t xml:space="preserve"> Situated between seas and mountains, Chaozhou is a city shaped by over 1,600 years of history. This rich heritage has gifted the city with unique cultural treasures, such as Chaozhou Gongfu tea and a distinctive cuisine. The city is celebrated as the birthplace of Chaozhou Cuisine and acknowledges culture as a global public good. This Creative City is endowed with a mild climate, abundant rainfalls and rich food resources such as olive and tea and is also known as a Land of Fish and Rice.The globally renowned Chaozhou Cuisine is showcased and appreciated through restaurants spanning over 130 countries and regions. It has proudly represented China at World Expos and the Beijing Olympics, featuring a rich variety of over 500 dishes, 300 snacks, and 100 condiments. Chaozhou also hosts over 100 annual food-themed conferences, exhibitions, festivals, and contests. These serve as vibrant platforms for industry development and international communication and cooperation, offering a global audience a taste of Chaozhou’s creative gastronomy.The city hosts an extensive lineup of national culinary festivals, such as the Spring Festival, Lantern Festival, and Dragon Boat Festival. These events seamlessly combine Chaozhou’s gastronomic achievements with its rich traditional customs. According to the city, these events attract around 10 million citizens and tourists each year. Beyond enriching the city’s cultural sector, these festivals play an important role in fostering economic, social and environmental advancements, contributing significantly to the city’s sustainable urban development. Added Value: As a Creative City of Gastronomy, Chaozhou is dedicated:To leverage the role of creative gastronomy in driving sustainable urban development;To implement various initiatives to create more job opportunities, particularly for youth and women;To promote the necessity of healthy lifestyles, enhancing the well-being of people of all ages and sharing knowledge on the city’s gastronomical heritage; and To provide access to the city’s good practices, and work with the Network to reduce poverty, strengthen cooperations and promote sustainable development, supporting culture as a global public good.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>About the Creative City: Music and culture are integral to Concepción’s sustainable development, diversifying its productive framework and establishing a presence in the national and global imagination. The city’s rich concert agendas, vibrant nightlife, and major events lay the foundation for promoting it as a cultural tourism destination. Music serves as a vital factor for social integration in Concepción, shaping the identity of its residents. Diverse musical initiatives, including youth orchestras, Big Band Jazz ensembles, and choral groups, bring together the city’s inhabitants, nurturing musicians and cultivating new audiences for music.Concepción boasts a thriving musical ecosystem encompassing musicians, recording studios, rehearsal spaces, and various stakeholders. This dynamic circuit contributes significantly to the local economy, especially in areas like, transportation, gastronomy, leisure, and local commerce. Concepción is renown as a key location for shows in the country, hosting renowned artists and events.The city’s commitment to music education is evident through various institutions, including the Concepción Symphony Corporation and several music academies and schools. Additionally, cultural corporations and universities provide specialized courses and workshops, contributing to both educational and professional development in the field. Known for its universities and vibrant popular culture, Concepción offers a blend of academic life with diverse cultural offerings rooted in rural traditions.  Added Value: As a Creative City of Music, Concepciónis dedicated:To strengthen the music scene and enhance its contribution to the sustainable urban development of Creative Cities;To improve the local spaces for music education, creation, and dissemination, both public and private;To strengthen public and private partnerships and collaborations with civil society to create an environment conductive to the integration of music with cultural and creative tourism, education, and quality of life in the city; and To foster research and specialized publications in the field of music.</t>
+          <t xml:space="preserve"> Music and culture are integral to Concepción’s sustainable development, diversifying its productive framework and establishing a presence in the national and global imagination. The city’s rich concert agendas, vibrant nightlife, and major events lay the foundation for promoting it as a cultural tourism destination. Music serves as a vital factor for social integration in Concepción, shaping the identity of its residents. Diverse musical initiatives, including youth orchestras, Big Band Jazz ensembles, and choral groups, bring together the city’s inhabitants, nurturing musicians and cultivating new audiences for music.Concepción boasts a thriving musical ecosystem encompassing musicians, recording studios, rehearsal spaces, and various stakeholders. This dynamic circuit contributes significantly to the local economy, especially in areas like, transportation, gastronomy, leisure, and local commerce. Concepción is renown as a key location for shows in the country, hosting renowned artists and events.The city’s commitment to music education is evident through various institutions, including the Concepción Symphony Corporation and several music academies and schools. Additionally, cultural corporations and universities provide specialized courses and workshops, contributing to both educational and professional development in the field. Known for its universities and vibrant popular culture, Concepción offers a blend of academic life with diverse cultural offerings rooted in rural traditions.  Added Value: As a Creative City of Music, Concepciónis dedicated:To strengthen the music scene and enhance its contribution to the sustainable urban development of Creative Cities;To improve the local spaces for music education, creation, and dissemination, both public and private;To strengthen public and private partnerships and collaborations with civil society to create an environment conductive to the integration of music with cultural and creative tourism, education, and quality of life in the city; and To foster research and specialized publications in the field of music.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>About the Creative City: Chongqing, with a history spanning over 3,000 years, is marked by its mountainous terrain and the Yangtze River flowing through the city. The city's innovative design encompasses roads, bridges, tunnels, parks, and buildings, highlighting the layered, three-dimensional features that make it a mountain city marvel. The design assets of Chongqing serve as a source of inspiration for over 500,000 practitioners. These resources nourish diverse design industries, including industrial, engineering, and fashion design.The city places significant emphasis on organizing international professional activities in design. Events like the “Smart Expo Cup” an industrial design competition and the “Heartland's Wisdom” an international design forum, provide platforms for global designers to exchange knowledge and showcase innovation achievements.Cultural creativity and design services form the core of Chongqing’s development. In 2022, these industries achieved a total operating revenue of approximately USD 29.6 billion, with over 300 design parks, 50,000 design enterprises, and 500,000 employees. Also, internet platforms like Humi Network Technology engage millions in online design interaction globally. Chongqing’s design impact extends to industrial transformation, unique urban environments, and the integration of traditional crafts into contemporary aesthetics. Industrial design promotes transformation in traditional sectors, engineering design shapes unique living environments, and fashion design contributes to poverty relief and the preservation of cultural heritage. Added Value: As a Creative City of Design, Chongqing is dedicated:To foster integration and development of the design industry, creating more opportunities for international exchanges;To leverage digital design for urban renewal and sustainable urban development models; and To enhance the economy, rural revitalization and exemplify green development and cultural diversity protection through service design.</t>
+          <t xml:space="preserve"> Chongqing, with a history spanning over 3,000 years, is marked by its mountainous terrain and the Yangtze River flowing through the city. The city's innovative design encompasses roads, bridges, tunnels, parks, and buildings, highlighting the layered, three-dimensional features that make it a mountain city marvel. The design assets of Chongqing serve as a source of inspiration for over 500,000 practitioners. These resources nourish diverse design industries, including industrial, engineering, and fashion design.The city places significant emphasis on organizing international professional activities in design. Events like the “Smart Expo Cup” an industrial design competition and the “Heartland's Wisdom” an international design forum, provide platforms for global designers to exchange knowledge and showcase innovation achievements.Cultural creativity and design services form the core of Chongqing’s development. In 2022, these industries achieved a total operating revenue of approximately USD 29.6 billion, with over 300 design parks, 50,000 design enterprises, and 500,000 employees. Also, internet platforms like Humi Network Technology engage millions in online design interaction globally. Chongqing’s design impact extends to industrial transformation, unique urban environments, and the integration of traditional crafts into contemporary aesthetics. Industrial design promotes transformation in traditional sectors, engineering design shapes unique living environments, and fashion design contributes to poverty relief and the preservation of cultural heritage. Added Value: As a Creative City of Design, Chongqing is dedicated:To foster integration and development of the design industry, creating more opportunities for international exchanges;To leverage digital design for urban renewal and sustainable urban development models; and To enhance the economy, rural revitalization and exemplify green development and cultural diversity protection through service design.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>About the Creative City: With a cultural legacy dating as far back as 8,000 B.C., Herakleion’s identity is formed by its unique mix of monuments, natural environment, climate, renowned hospitality, and the city’s traditional gastronomy, all of which are blended in a modern rural-urban area. The city acknowledges culture and creativity as strategic factors for sustainable development and has already integrated them into the local development plans. The Global Sustainable Tourism Council, considers Heraklion as a “Sustainable Tourism Destination” and plans to amplify this through its designation with the UCCN. To maximize the assets of gastronomy in the region and unleash its full potential, the city has developed a “Heraklion Flavours Master Plan”, where travellers can taste or buy local food products, while also receiving cultural context of the region.With a focus on traditional gastronomy, the region is best known for its rich production of agro-products, with 30 million olive trees and two-thirds of cultivatable land dedicated to olive production. The city also takes pride in having more than 150 species of edible greens, considered a cultural and social treasure since prehistoric times. Aside from this, the Creative City offers a variety of local cheeses and wines (dating back 3,500 years), with professional networks that are among the most active in the country. As a whole, the Cretan diet is central to the local food culture, which is strongly associated with longevity and the consumption of seasonal and local foods.  Added Value: As a Creative City of Gastronomy, Herakleion is dedicated:To engage in transforming the city into a sustainable destination that supports the advancement of creativity and the preservation of local tradition;To strengthen local, national, and international cooperation for exchanging and promoting good practices, developing the city into a gastronomy hub for capacity building;To undertake networking activities to provide better access for creators and professionals to interact with each other; andTo improve the access to and participation in cultural life, notably for marginalized groups.</t>
+          <t xml:space="preserve"> With a cultural legacy dating as far back as 8,000 B.C., Herakleion’s identity is formed by its unique mix of monuments, natural environment, climate, renowned hospitality, and the city’s traditional gastronomy, all of which are blended in a modern rural-urban area. The city acknowledges culture and creativity as strategic factors for sustainable development and has already integrated them into the local development plans. The Global Sustainable Tourism Council, considers Heraklion as a “Sustainable Tourism Destination” and plans to amplify this through its designation with the UCCN. To maximize the assets of gastronomy in the region and unleash its full potential, the city has developed a “Heraklion Flavours Master Plan”, where travellers can taste or buy local food products, while also receiving cultural context of the region.With a focus on traditional gastronomy, the region is best known for its rich production of agro-products, with 30 million olive trees and two-thirds of cultivatable land dedicated to olive production. The city also takes pride in having more than 150 species of edible greens, considered a cultural and social treasure since prehistoric times. Aside from this, the Creative City offers a variety of local cheeses and wines (dating back 3,500 years), with professional networks that are among the most active in the country. As a whole, the Cretan diet is central to the local food culture, which is strongly associated with longevity and the consumption of seasonal and local foods.  Added Value: As a Creative City of Gastronomy, Herakleion is dedicated:To engage in transforming the city into a sustainable destination that supports the advancement of creativity and the preservation of local tradition;To strengthen local, national, and international cooperation for exchanging and promoting good practices, developing the city into a gastronomy hub for capacity building;To undertake networking activities to provide better access for creators and professionals to interact with each other; andTo improve the access to and participation in cultural life, notably for marginalized groups.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>About the Creative City:Asaba exhibits a rich history of film production and holds the distinction of establishing the first Film Village nationwide, serving as the centre of ‘Nollywood’, one of Africa’s leading entertainment industries in terms of both production and economic value. Nollywood produces an impressive annual output of 1,000 to 1,500 movies, creating a transnational cinematic cultural influence that exports local stories and cultures on a national and globe scale. The Film Village is renowned for its International Film Conferences, International Artist Residency programmes, and identifying and supporting local talents by providing them with platforms for growth and opportunities to showcase their expertise within the film industry and beyond. The city is also home to many renowned film producers and actors, as well as unique craft, folk and literary industries. According to the city, the population of film professionals and actors in Asaba is estimated at around 100,000. As a result of its diverse cultural and creative sector, the city of Asaba offers many opportunities for cross-sectoral exchanges with the Network.In addition to its cultural influence, the film industry has also brought about significant economic benefits to the city, generating employment opportunities and attracting international investments. The Film Village and other cultural assets across the city serve as a gateway to sustainable urban development. It is with this vision in mind that Asaba has joined the Network, with a commitment to boosting regional film production and sharing good practices with other members in the Network.Added Value: As a Creative City of Film, Asaba is dedicated:To identify and nurture local creative talents, providing them with training opportunities and platforms to showcase their skills within the film industry;To foster collaboration and technical exchange within the film industry;To create opportunities for continuous growth and development of the creative sector, promoting innovation and expansion of culture; and To spread historical awareness and to provide cultural support, ensuring that the rich cultural heritage of Asaba continues to be celebrated and shared.</t>
+          <t>Asaba exhibits a rich history of film production and holds the distinction of establishing the first Film Village nationwide, serving as the centre of ‘Nollywood’, one of Africa’s leading entertainment industries in terms of both production and economic value. Nollywood produces an impressive annual output of 1,000 to 1,500 movies, creating a transnational cinematic cultural influence that exports local stories and cultures on a national and globe scale. The Film Village is renowned for its International Film Conferences, International Artist Residency programmes, and identifying and supporting local talents by providing them with platforms for growth and opportunities to showcase their expertise within the film industry and beyond. The city is also home to many renowned film producers and actors, as well as unique craft, folk and literary industries. According to the city, the population of film professionals and actors in Asaba is estimated at around 100,000. As a result of its diverse cultural and creative sector, the city of Asaba offers many opportunities for cross-sectoral exchanges with the Network.In addition to its cultural influence, the film industry has also brought about significant economic benefits to the city, generating employment opportunities and attracting international investments. The Film Village and other cultural assets across the city serve as a gateway to sustainable urban development. It is with this vision in mind that Asaba has joined the Network, with a commitment to boosting regional film production and sharing good practices with other members in the Network.Added Value: As a Creative City of Film, Asaba is dedicated:To identify and nurture local creative talents, providing them with training opportunities and platforms to showcase their skills within the film industry;To foster collaboration and technical exchange within the film industry;To create opportunities for continuous growth and development of the creative sector, promoting innovation and expansion of culture; and To spread historical awareness and to provide cultural support, ensuring that the rich cultural heritage of Asaba continues to be celebrated and shared.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>About the Creative City: As the national cradle of printing and the book industry during the Renaissance, where Rabelais' books were published, Lyon's history is closely interwoven with that of literature. As a Creative City, Lyon pledges to improve access to literature for all, notably through measures to protect the status of artists, and writers in particular. This is evidenced by the creation of municipal spaces dedicated to creativity, such as artist residencies for writing and illustration.A majority of the region’s literary activity is concentrated in the city: 25% of the region's 286 independent bookshops and 30% of its 130 publishing houses are located in Lyon. The city is home to the country’s 2nd largest municipal library, and 20% of its residents are members of at least one of the 16 municipal libraries. To ensure the vitality of its literary sector, Lyon organizes international gatherings to showcase its creators and its book culture. The Quais du Polar and the Lyon Comic Strip Festivals, which welcomed between 80,000 and 90,000 visitors during their last editions, are outstanding examples of the city’s dedication.Lyon is committed to promoting access to literature for the most vulnerable groups, and to working to strengthen social cohesion through culture and creativity. The artist residencies, coordinated by the city's libraries in support of authors, help to guarantee the cultural rights of audiences who have traditionally been overlooked where culture is concerned, people from disadvantaged backgrounds, including prisoners. Inclusive, supportive and resilient, the city fully intends to tackle major contemporary issues and climate change by making culture a central pillar of its urban development policies. Added value:As a Creative City of Literature, Lyon is dedicated to: Encouraging synergies between the city's various creative sectors, with a view to promoting artistic practices as much as possible;Highlighting local cultural diversity by promoting multilingualism and actively supporting the literary translation sector;Combating illiteracy and striving to make reading and writing accessible to all, especially to the most vulnerable; andStrengthening international cooperation and the exchange of good practices in the context of urban cultural policies to build more inclusive and sustainable cities.</t>
+          <t xml:space="preserve"> As the national cradle of printing and the book industry during the Renaissance, where Rabelais' books were published, Lyon's history is closely interwoven with that of literature. As a Creative City, Lyon pledges to improve access to literature for all, notably through measures to protect the status of artists, and writers in particular. This is evidenced by the creation of municipal spaces dedicated to creativity, such as artist residencies for writing and illustration.A majority of the region’s literary activity is concentrated in the city: 25% of the region's 286 independent bookshops and 30% of its 130 publishing houses are located in Lyon. The city is home to the country’s 2nd largest municipal library, and 20% of its residents are members of at least one of the 16 municipal libraries. To ensure the vitality of its literary sector, Lyon organizes international gatherings to showcase its creators and its book culture. The Quais du Polar and the Lyon Comic Strip Festivals, which welcomed between 80,000 and 90,000 visitors during their last editions, are outstanding examples of the city’s dedication.Lyon is committed to promoting access to literature for the most vulnerable groups, and to working to strengthen social cohesion through culture and creativity. The artist residencies, coordinated by the city's libraries in support of authors, help to guarantee the cultural rights of audiences who have traditionally been overlooked where culture is concerned, people from disadvantaged backgrounds, including prisoners. Inclusive, supportive and resilient, the city fully intends to tackle major contemporary issues and climate change by making culture a central pillar of its urban development policies. Added value:As a Creative City of Literature, Lyon is dedicated to: Encouraging synergies between the city's various creative sectors, with a view to promoting artistic practices as much as possible;Highlighting local cultural diversity by promoting multilingualism and actively supporting the literary translation sector;Combating illiteracy and striving to make reading and writing accessible to all, especially to the most vulnerable; andStrengthening international cooperation and the exchange of good practices in the context of urban cultural policies to build more inclusive and sustainable cities.</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
